--- a/assets/?.xlsx
+++ b/assets/?.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="30040" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="352">
   <si>
     <t>SHORTLISTED PROFILES</t>
   </si>
@@ -39,67 +39,1012 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>M3422985</t>
+    <t>M3107670</t>
   </si>
   <si>
     <t>Later</t>
   </si>
   <si>
-    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Software Professional</t>
+    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3930988</t>
+  </si>
+  <si>
+    <t>Dhivya Lakshmi</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3380559</t>
+  </si>
+  <si>
+    <t>P AARTHI</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | B.Tech. | Not working</t>
+  </si>
+  <si>
+    <t>M1486367</t>
+  </si>
+  <si>
+    <t>ROOPA COMANDUR</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Brahmin - Iyengar, Gothra : Kaundinya | United States of America | Ph.D. | Not working</t>
+  </si>
+  <si>
+    <t>M3255525</t>
+  </si>
+  <si>
+    <t>Anitha Balasubramanian</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>T1813340</t>
+  </si>
+  <si>
+    <t>Ajitha Mahalakshmi</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Balija (Caste No Bar) | India | M.S.(Engg.) | Architect</t>
+  </si>
+  <si>
+    <t>M3870741</t>
+  </si>
+  <si>
+    <t>Madhumitha</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Pillai (Caste No Bar) | France | B.Tech. | Not working</t>
+  </si>
+  <si>
+    <t>M3682647</t>
+  </si>
+  <si>
+    <t>Abinaya</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3552984</t>
+  </si>
+  <si>
+    <t>Deepika</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3470666</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Vellalar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3859464</t>
+  </si>
+  <si>
+    <t>Shwetha</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3386802</t>
+  </si>
+  <si>
+    <t>Divya.R</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | MBA | Designer</t>
+  </si>
+  <si>
+    <t>M3916814</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Pillai (Caste No Bar) | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M2888880</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3763267</t>
+  </si>
+  <si>
+    <t>Krithi</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | Bachelor Degree in Management | Business Analyst</t>
+  </si>
+  <si>
+    <t>M3379044</t>
+  </si>
+  <si>
+    <t>Nisha Rajakumar</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Devar/Thevar/Mukkulathor | United States of America | B.Tech. | Not working</t>
+  </si>
+  <si>
+    <t>M3808643</t>
+  </si>
+  <si>
+    <t>A Kokila</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M2964687</t>
+  </si>
+  <si>
+    <t>S.NIROOBHA</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3453002</t>
+  </si>
+  <si>
+    <t>Prathiba</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3483358</t>
+  </si>
+  <si>
+    <t>J.Kalaranjani</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3840588</t>
+  </si>
+  <si>
+    <t>Nithya</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3577821</t>
+  </si>
+  <si>
+    <t>Preetha</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3895360</t>
+  </si>
+  <si>
+    <t>RAJAPUSHPAM</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3645165</t>
+  </si>
+  <si>
+    <t>K S Sharmila</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3544079</t>
+  </si>
+  <si>
+    <t>Balavarshini R</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | MBA | Banking Service Professional</t>
+  </si>
+  <si>
+    <t>M3168544</t>
+  </si>
+  <si>
+    <t>S.Priti</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Chettiar | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3217538</t>
+  </si>
+  <si>
+    <t>Jaishree</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M2812115</t>
+  </si>
+  <si>
+    <t>Ramya</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | MBA | Software Professional</t>
+  </si>
+  <si>
+    <t>M3248797</t>
+  </si>
+  <si>
+    <t>Thenmozhi</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Not working</t>
+  </si>
+  <si>
+    <t>M3166680</t>
+  </si>
+  <si>
+    <t>S.Priyadharshini</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3114165</t>
+  </si>
+  <si>
+    <t>Kripa.D</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.Sc. IT / Computer Science | Not working</t>
+  </si>
+  <si>
+    <t>M3923064</t>
+  </si>
+  <si>
+    <t>Monisha</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 9 In / 176 Cms | Religion : Hindu, Caste : Chettiar | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M2642126</t>
+  </si>
+  <si>
+    <t>Padmapriya Bose</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nadar | India | BE | Not working</t>
+  </si>
+  <si>
+    <t>M3364889</t>
+  </si>
+  <si>
+    <t>Praveena Mani</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | MBA | Software Professional</t>
+  </si>
+  <si>
+    <t>M3852569</t>
+  </si>
+  <si>
+    <t>avici</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Yadav (Caste No Bar) | United States of America | M.S.(Engg.) | Marketing Professional</t>
+  </si>
+  <si>
+    <t>M3894700</t>
+  </si>
+  <si>
+    <t>Gita</t>
+  </si>
+  <si>
+    <t>22 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Pillai | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3907573</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3872177</t>
+  </si>
+  <si>
+    <t>aruna</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Parkava Kulam | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3635867</t>
+  </si>
+  <si>
+    <t>Durga</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3800294</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai | United States of America | BE | Not working</t>
+  </si>
+  <si>
+    <t>M3072765</t>
+  </si>
+  <si>
+    <t>Maya Selvan</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Vellalar (Caste No Bar) | United States of America | MBA | Not working</t>
+  </si>
+  <si>
+    <t>M2104832</t>
+  </si>
+  <si>
+    <t>Sumithra</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3662651</t>
+  </si>
+  <si>
+    <t>Isfrieda Isakiya</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Not working</t>
+  </si>
+  <si>
+    <t>M3411231</t>
+  </si>
+  <si>
+    <t>Sumithra Arul</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Consultant</t>
+  </si>
+  <si>
+    <t>M3522391</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3383707</t>
+  </si>
+  <si>
+    <t>Gokilavani</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3658368</t>
+  </si>
+  <si>
+    <t>Kanchana Gunasekaran</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3211753</t>
+  </si>
+  <si>
+    <t>Kavitha</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3351051</t>
+  </si>
+  <si>
+    <t>SARANYA</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3756953</t>
+  </si>
+  <si>
+    <t>karthiga</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3270603</t>
+  </si>
+  <si>
+    <t>Rubiny</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Yadav | United States of America | M.S.(Engg.) | Business Analyst</t>
+  </si>
+  <si>
+    <t>M2601083</t>
+  </si>
+  <si>
+    <t>Jaana Saranya</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3349627</t>
+  </si>
+  <si>
+    <t>Sruthi</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Executive</t>
+  </si>
+  <si>
+    <t>M3806267</t>
+  </si>
+  <si>
+    <t>ON REQUEST</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Pillai | United States of America | MBA | Accounts/Finance Professional</t>
+  </si>
+  <si>
+    <t>M3122035</t>
+  </si>
+  <si>
+    <t>N.RUKMANI</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3377064</t>
+  </si>
+  <si>
+    <t>Swathi</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | MD / MS (Medical) | Doctor</t>
+  </si>
+  <si>
+    <t>M3800099</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Thuluva (Caste No Bar) | United States of America | M.S.(Engg.) | Hardware Professional</t>
+  </si>
+  <si>
+    <t>M3786675</t>
+  </si>
+  <si>
+    <t>Vasantha Vathana Balasubramanian</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Pillai | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3234487</t>
+  </si>
+  <si>
+    <t>B.Vidhya Vinoodhini</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Pillai (Caste No Bar) | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3863865</t>
+  </si>
+  <si>
+    <t>Mahalakshmi Velayutham</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3921056</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 8 In / 173 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar (Caste No Bar) | United States of America | M.S.(Engg.) | Consultant</t>
+  </si>
+  <si>
+    <t>M3939876</t>
+  </si>
+  <si>
+    <t>kamni shobhika</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar (Caste No Bar) | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3090729</t>
+  </si>
+  <si>
+    <t>Vidya</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3811209</t>
+  </si>
+  <si>
+    <t>Sumathi</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Chettiar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M2640125</t>
+  </si>
+  <si>
+    <t>K.Madhumitha</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3433333</t>
+  </si>
+  <si>
+    <t>Lakshmi Priya Sekar</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3552957</t>
+  </si>
+  <si>
+    <t>Malathi (Priya)</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.Sc. IT / Computer Science | Software Professional</t>
+  </si>
+  <si>
+    <t>M3427980</t>
+  </si>
+  <si>
+    <t>anitha</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Intercaste (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
   </si>
   <si>
     <t>T2652869</t>
   </si>
   <si>
-    <t>26 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | B.Tech. | Not working</t>
-  </si>
-  <si>
-    <t>T2006528</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Velama | United States of America | B.Tech. | Software Professional</t>
-  </si>
-  <si>
-    <t>M2823514</t>
-  </si>
-  <si>
-    <t>Ananthi</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Gounder | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3658368</t>
-  </si>
-  <si>
-    <t>Kanchana Gunasekaran</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3317882</t>
+    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | B.Tech. | Not working</t>
+  </si>
+  <si>
+    <t>M3680139</t>
+  </si>
+  <si>
+    <t>preethi</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Sozhiya Vellalar (Caste No Bar) | India | BDS | Doctor</t>
+  </si>
+  <si>
+    <t>M3524498</t>
+  </si>
+  <si>
+    <t>Kirthika</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | MBA | Executive</t>
+  </si>
+  <si>
+    <t>M3814022</t>
+  </si>
+  <si>
+    <t>swadhi</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Reddy | India | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3905575</t>
+  </si>
+  <si>
+    <t>Haswini</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Mudaliyar | India | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3460540</t>
+  </si>
+  <si>
+    <t>Pavithra</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Mudaliyar | India | B.Arch | Architect</t>
+  </si>
+  <si>
+    <t>M3594428</t>
+  </si>
+  <si>
+    <t>NEENA</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Pillai | India | MBA | Manager</t>
+  </si>
+  <si>
+    <t>M3892938</t>
+  </si>
+  <si>
+    <t>Subaashini</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | India | B.Tech. | Not working</t>
+  </si>
+  <si>
+    <t>M3877693</t>
+  </si>
+  <si>
+    <t>Omshri</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Vokkaliga (Caste No Bar) | United States of America | BE | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3624025</t>
+  </si>
+  <si>
+    <t>Preethi</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | India | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3580732</t>
+  </si>
+  <si>
+    <t>Nikitaa Asokan</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Scientist / Researcher</t>
+  </si>
+  <si>
+    <t>M3915340</t>
+  </si>
+  <si>
+    <t>A SIVA SANKARI</t>
+  </si>
+  <si>
+    <t>22 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Pillai | India | BE | Not working</t>
+  </si>
+  <si>
+    <t>M3754219</t>
+  </si>
+  <si>
+    <t>Prashipa</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3295829</t>
+  </si>
+  <si>
+    <t>Venmathi</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Vishwakarma | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3702007</t>
+  </si>
+  <si>
+    <t>Bojidha Babu</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Reddy | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3112369</t>
+  </si>
+  <si>
+    <t>Abhirami</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3781845</t>
+  </si>
+  <si>
+    <t>Gayathri</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Reddy | United States of America | M.S.(Engg.) | Business Analyst</t>
+  </si>
+  <si>
+    <t>M3777658</t>
+  </si>
+  <si>
+    <t>Ashmita Mudaliar</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3816471</t>
+  </si>
+  <si>
+    <t>Dharanya</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Chettiar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3736710</t>
+  </si>
+  <si>
+    <t>Geetha</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Naidu (Caste No Bar) | United States of America | Bachelor Degree in Engineering / Computers | Software Professional</t>
+  </si>
+  <si>
+    <t>M3148290</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | India | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3459855</t>
+  </si>
+  <si>
+    <t>Dr. Preethi</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Chettiar (Caste No Bar) | United States of America | MD / MS (Medical) | Doctor</t>
+  </si>
+  <si>
+    <t>M3769873</t>
+  </si>
+  <si>
+    <t>V. keshika</t>
+  </si>
+  <si>
+    <t>22 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar (Caste No Bar) | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3902208</t>
+  </si>
+  <si>
+    <t>Sankara Gomathi</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Pillai (Caste No Bar) | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3322409</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Yadav (Caste No Bar) | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3487200</t>
+  </si>
+  <si>
+    <t>SNEHA</t>
+  </si>
+  <si>
+    <t>26 Yrs, 4 Ft 11 In / 150 Cms | Religion : Hindu, Caste : Reddy (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3749151</t>
+  </si>
+  <si>
+    <t>LATER</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Karuneegar (Caste No Bar) | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3914702</t>
+  </si>
+  <si>
+    <t>Apurva</t>
+  </si>
+  <si>
+    <t>21 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>T3025513</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Goud | United States of America | Masters Degree in Engineering / Computers | Hardware Professional</t>
+  </si>
+  <si>
+    <t>T2799884</t>
+  </si>
+  <si>
+    <t>bhargavi reddy</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Reddy | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3460029</t>
+  </si>
+  <si>
+    <t>On Request</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Naicker (Caste No Bar) | United States of America | MBA | Not working</t>
+  </si>
+  <si>
+    <t>M3597568</t>
+  </si>
+  <si>
+    <t>HARITHA</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Chettiar | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3688372</t>
+  </si>
+  <si>
+    <t>Sonya.M</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Pillai | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3218409</t>
+  </si>
+  <si>
+    <t>Pavithra Kandavel</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M2937372</t>
+  </si>
+  <si>
+    <t>ARCHANA</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Vishwakarma (Caste No Bar) | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3276363</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | MBA | CXO / President, Director, Chairman</t>
+  </si>
+  <si>
+    <t>M3380053</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Gounder (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3888925</t>
+  </si>
+  <si>
+    <t>Kirthi</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | Master Degree in Management | Health Care Professional</t>
+  </si>
+  <si>
+    <t>M3627217</t>
+  </si>
+  <si>
+    <t>Padma Prabha</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Reddy | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3886494</t>
+  </si>
+  <si>
+    <t>Selvarani Parameswaran</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Naicker | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3849752</t>
+  </si>
+  <si>
+    <t>Preeti</t>
   </si>
   <si>
     <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Nadar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
   </si>
   <si>
-    <t>M3744898</t>
-  </si>
-  <si>
-    <t>Aishwarya</t>
-  </si>
-  <si>
-    <t>23 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | India | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M2398177</t>
-  </si>
-  <si>
-    <t>Premalatha</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Chettiar | United States of America | MBA | Manager</t>
+    <t>M3764162</t>
+  </si>
+  <si>
+    <t>Mithuruba Natarajan</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Vokkaliga | United States of America | Bachelor Degree in Engineering / Computers | Software Professional</t>
+  </si>
+  <si>
+    <t>M3603021</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai (Caste No Bar) | United States of America | Master Degree in Legal | Lawyer &amp; Legal Professional</t>
+  </si>
+  <si>
+    <t>T3069623</t>
+  </si>
+  <si>
+    <t>Shalini</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Naidu (Caste No Bar) | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3221667</t>
+  </si>
+  <si>
+    <t>Later on request</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Not working</t>
+  </si>
+  <si>
+    <t>M2945070</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3781414</t>
+  </si>
+  <si>
+    <t>Krithiga.K</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3605363</t>
+  </si>
+  <si>
+    <t>swathi</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Not working</t>
   </si>
   <si>
     <t>M3712658</t>
@@ -111,249 +1056,12 @@
     <t>25 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Software Professional</t>
   </si>
   <si>
-    <t>M3418048</t>
-  </si>
-  <si>
-    <t>Sivashankari</t>
-  </si>
-  <si>
-    <t>23 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Devar/Thevar/Mukkulathor (Caste No Bar) | United Kingdom | Diploma | Not working</t>
-  </si>
-  <si>
-    <t>M2255097</t>
-  </si>
-  <si>
-    <t>charulatha</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Muthuraja (Caste No Bar) | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M2485224</t>
-  </si>
-  <si>
-    <t>pradi</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Yadav | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3166680</t>
-  </si>
-  <si>
-    <t>S.Priyadharshini</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
-  </si>
-  <si>
-    <t>M3391276</t>
-  </si>
-  <si>
-    <t>Dharshana Jeyakumar</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Viswabrahmin (Caste No Bar) | India | B.Tech. | Software Professional</t>
-  </si>
-  <si>
-    <t>M3427980</t>
-  </si>
-  <si>
-    <t>anitha</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Intercaste (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>M3479600</t>
-  </si>
-  <si>
-    <t>Jeevitha A</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Yadav | United States of America | B.Tech. | Software Professional</t>
-  </si>
-  <si>
-    <t>M3645231</t>
-  </si>
-  <si>
-    <t>Brinda</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3691505</t>
-  </si>
-  <si>
-    <t>Kirupha Balasubramanian</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Not working</t>
-  </si>
-  <si>
-    <t>M3450370</t>
-  </si>
-  <si>
-    <t>Sri Thanga Aishvarya</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Pillai | India | B.Tech. | Engineer - Non IT</t>
-  </si>
-  <si>
-    <t>M3303638</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar (Caste No Bar) | India | MBA | Business Analyst</t>
-  </si>
-  <si>
-    <t>M3631769</t>
-  </si>
-  <si>
-    <t>Vidhya</t>
-  </si>
-  <si>
-    <t>23 Yrs, 4 Ft 11 In / 150 Cms | Religion : Hindu, Caste : Vellalar (Caste No Bar) | United States of America | Bachelor Degree in Medicine | Not working</t>
-  </si>
-  <si>
     <t>M2942942</t>
   </si>
   <si>
     <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Software Professional</t>
   </si>
   <si>
-    <t>M2942918</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Muthuraja | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>M3221057</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Devar/Thevar/Mukkulathor (Caste No Bar) | India | MBBS | Doctor</t>
-  </si>
-  <si>
-    <t>T1493902</t>
-  </si>
-  <si>
-    <t>Hemalatha Kesavaram</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Chattada Sri Vaishnava (Caste No Bar) | United States of America | B.Tech. | Software Professional</t>
-  </si>
-  <si>
-    <t>M3437807</t>
-  </si>
-  <si>
-    <t>sneha</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Chettiar (Caste No Bar) | United States of America | M.S.(Engg.) | Not working</t>
-  </si>
-  <si>
-    <t>M3293548</t>
-  </si>
-  <si>
-    <t>Sharmila</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar (Caste No Bar) | United States of America | M.S.(Engg.) | Scientist / Researcher</t>
-  </si>
-  <si>
-    <t>M2936192</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Financial Analyst / Planning</t>
-  </si>
-  <si>
-    <t>M2745676</t>
-  </si>
-  <si>
-    <t>Supriya</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Maruthuvar | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3157198</t>
-  </si>
-  <si>
-    <t>Sishaa muthswamy kumar</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>M3611892</t>
-  </si>
-  <si>
-    <t>AISHWARYA</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>M3617376</t>
-  </si>
-  <si>
-    <t>P Sowmya</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Hardware Professional</t>
-  </si>
-  <si>
-    <t>M2362161</t>
-  </si>
-  <si>
-    <t>sowmya</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
-  </si>
-  <si>
-    <t>M3632109</t>
-  </si>
-  <si>
-    <t>Pallavi</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Brahmin Iyer (Caste No Bar), Gothra : Harithasa | United States of America | MSW</t>
-  </si>
-  <si>
-    <t>M3610305</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>M3433333</t>
-  </si>
-  <si>
-    <t>Lakshmi Priya Sekar</t>
-  </si>
-  <si>
-    <t>23 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | B.Tech. | Software Professional</t>
-  </si>
-  <si>
-    <t>T2508397</t>
-  </si>
-  <si>
-    <t>Prabha Srinivasan</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Caste not specified | United States of America | M.S.(Engg.) | Business Analyst</t>
-  </si>
-  <si>
-    <t>M3485278</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Reddy | India | MBBS | Doctor</t>
-  </si>
-  <si>
     <t>M3173055</t>
   </si>
   <si>
@@ -363,92 +1071,17 @@
     <t>23 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Reddy | India | B.Tech. | Engineer - Non IT</t>
   </si>
   <si>
-    <t>T2658166</t>
-  </si>
-  <si>
-    <t>V sharanya</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Reddy | India | MBA | Not working</t>
-  </si>
-  <si>
-    <t>M2640125</t>
-  </si>
-  <si>
-    <t>K.Madhumitha</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Not working</t>
-  </si>
-  <si>
-    <t>K1078285</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Devanga (Caste No Bar) | India | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M2544287</t>
-  </si>
-  <si>
-    <t>Vidhya.k</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | India | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>M3001290</t>
-  </si>
-  <si>
-    <t>S LAKSHMI SUDHA</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Reddy | India | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>T2226510</t>
-  </si>
-  <si>
-    <t>Raga</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Caste not specified | United States of America | Masters Degree in Engineering / Computers | Health Care Professional</t>
-  </si>
-  <si>
-    <t>M3662691</t>
-  </si>
-  <si>
-    <t>saranya ramasubbu</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Reddy | India | B.Tech. | Not working</t>
-  </si>
-  <si>
     <t>M3494839</t>
   </si>
   <si>
     <t>Sinduja</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Reddy | India | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M2958237</t>
-  </si>
-  <si>
-    <t>V.Kavitha</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Reddy | India | B.Tech. | Software Professional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,14 +1113,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -587,10 +1212,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -628,8 +1252,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -960,17 +1583,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A1:D1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1013,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>42047</v>
+        <v>42213</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1028,705 +1651,1785 @@
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>42047</v>
+        <v>42213</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="28">
+    <row r="6" spans="1:5" ht="42">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>42047</v>
+        <v>42213</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="28">
+    <row r="7" spans="1:5" ht="42">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>42047</v>
+        <v>42212</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="28">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3">
-        <v>42047</v>
+        <v>42212</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="42">
+    <row r="9" spans="1:5" ht="28">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>42047</v>
+        <v>42211</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="28">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>42047</v>
+        <v>42210</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="28">
+    <row r="11" spans="1:5" ht="42">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3">
-        <v>42047</v>
+        <v>42207</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="42">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3">
-        <v>42047</v>
+        <v>42207</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="42">
+    <row r="13" spans="1:5" ht="28">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3">
-        <v>42040</v>
+        <v>42207</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="42">
+    <row r="14" spans="1:5" ht="28">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3">
-        <v>42040</v>
+        <v>42207</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="28">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3">
-        <v>42040</v>
+        <v>42207</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="28">
+    <row r="16" spans="1:5" ht="42">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3">
-        <v>42040</v>
+        <v>42207</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="42">
+    <row r="17" spans="1:5" ht="28">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3">
-        <v>42038</v>
+        <v>42207</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="42">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3">
-        <v>42038</v>
+        <v>42207</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="28">
+    <row r="19" spans="1:5" ht="42">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3">
-        <v>42037</v>
+        <v>42207</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="42">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3">
-        <v>42037</v>
+        <v>42207</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="28">
+    <row r="21" spans="1:5" ht="42">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
-        <v>42037</v>
+        <v>42207</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="28">
+    <row r="22" spans="1:5" ht="42">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3">
-        <v>42037</v>
+        <v>42207</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="42">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="3">
-        <v>42037</v>
+        <v>42207</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="42">
+    <row r="24" spans="1:5" ht="28">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3">
-        <v>42037</v>
+        <v>42207</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="42">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3">
-        <v>42037</v>
+        <v>42207</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="42">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3">
-        <v>42037</v>
+        <v>42207</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="42">
       <c r="A27" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3">
-        <v>42037</v>
+        <v>42207</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="42">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3">
-        <v>42037</v>
+        <v>42207</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="42">
+    <row r="29" spans="1:5" ht="28">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3">
-        <v>42037</v>
+        <v>42207</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="42">
       <c r="A30" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3">
-        <v>42035</v>
+        <v>42206</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="42">
       <c r="A31" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B31" s="3">
-        <v>42035</v>
+        <v>42206</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="42">
+    <row r="32" spans="1:5" ht="28">
       <c r="A32" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B32" s="3">
-        <v>42035</v>
+        <v>42206</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="42">
+    <row r="33" spans="1:5" ht="28">
       <c r="A33" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B33" s="3">
-        <v>42035</v>
+        <v>42206</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="42">
       <c r="A34" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B34" s="3">
-        <v>42035</v>
+        <v>42206</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="42">
+    <row r="35" spans="1:5" ht="28">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B35" s="3">
-        <v>42030</v>
+        <v>42206</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="42">
+    <row r="36" spans="1:5" ht="28">
       <c r="A36" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B36" s="3">
-        <v>42030</v>
+        <v>42205</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="42">
       <c r="A37" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B37" s="3">
-        <v>42026</v>
+        <v>42205</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="42">
       <c r="A38" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B38" s="3">
-        <v>42026</v>
+        <v>42205</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="42">
+    <row r="39" spans="1:5" ht="28">
       <c r="A39" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B39" s="3">
-        <v>42026</v>
+        <v>42205</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="42">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B40" s="3">
-        <v>42026</v>
+        <v>42205</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="28">
+    <row r="41" spans="1:5" ht="42">
       <c r="A41" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B41" s="3">
-        <v>42026</v>
+        <v>42205</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="28">
       <c r="A42" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B42" s="3">
-        <v>42026</v>
+        <v>42205</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="28">
       <c r="A43" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B43" s="3">
-        <v>42026</v>
+        <v>42205</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="28">
+    <row r="44" spans="1:5" ht="42">
       <c r="A44" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3">
-        <v>42026</v>
+        <v>42205</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" ht="28">
+    <row r="45" spans="1:5" ht="42">
       <c r="A45" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B45" s="3">
-        <v>42026</v>
+        <v>42205</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" ht="42">
+    <row r="46" spans="1:5" ht="28">
       <c r="A46" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B46" s="3">
-        <v>42026</v>
+        <v>42205</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="28">
       <c r="A47" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B47" s="3">
-        <v>42012</v>
+        <v>42205</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="42">
+    <row r="48" spans="1:5" ht="28">
       <c r="A48" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B48" s="3">
-        <v>42012</v>
+        <v>42205</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="28">
+    <row r="49" spans="1:5" ht="42">
       <c r="A49" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B49" s="3">
-        <v>41963</v>
+        <v>42205</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="28">
       <c r="A50" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B50" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" ht="42">
+      <c r="A51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" ht="42">
+      <c r="A52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" ht="28">
+      <c r="A53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" ht="28">
+      <c r="A54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" ht="42">
+      <c r="A55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" ht="42">
+      <c r="A56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" ht="42">
+      <c r="A57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="42">
+      <c r="A58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" ht="42">
+      <c r="A59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" ht="42">
+      <c r="A60" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="3">
+        <v>42204</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="28">
+      <c r="A61" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="3">
+        <v>42204</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" ht="42">
+      <c r="A62" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="3">
+        <v>42204</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" ht="42">
+      <c r="A63" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="42">
+      <c r="A64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" ht="42">
+      <c r="A65" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" ht="42">
+      <c r="A66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" ht="28">
+      <c r="A67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" ht="28">
+      <c r="A68" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" ht="42">
+      <c r="A69" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" ht="42">
+      <c r="A70" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" ht="42">
+      <c r="A71" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" ht="42">
+      <c r="A72" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" ht="28">
+      <c r="A73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" ht="28">
+      <c r="A74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B74" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" ht="28">
+      <c r="A75" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" ht="28">
+      <c r="A76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" ht="28">
+      <c r="A77" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" ht="28">
+      <c r="A78" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" ht="28">
+      <c r="A79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" ht="42">
+      <c r="A80" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B80" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" ht="28">
+      <c r="A81" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B81" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" ht="42">
+      <c r="A82" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B82" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" ht="28">
+      <c r="A83" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" ht="42">
+      <c r="A84" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" ht="42">
+      <c r="A85" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" ht="28">
+      <c r="A86" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B86" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" ht="42">
+      <c r="A87" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" ht="28">
+      <c r="A88" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" ht="42">
+      <c r="A89" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" ht="42">
+      <c r="A90" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" ht="42">
+      <c r="A91" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" ht="28">
+      <c r="A92" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" ht="42">
+      <c r="A93" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B93" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" ht="42">
+      <c r="A94" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B94" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" ht="42">
+      <c r="A95" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B95" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" ht="42">
+      <c r="A96" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" ht="42">
+      <c r="A97" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B97" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" ht="42">
+      <c r="A98" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B98" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" ht="42">
+      <c r="A99" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B99" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" ht="42">
+      <c r="A100" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B100" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" ht="42">
+      <c r="A101" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B101" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" ht="42">
+      <c r="A102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B102" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" ht="28">
+      <c r="A103" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B103" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" ht="28">
+      <c r="A104" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B104" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" ht="42">
+      <c r="A105" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B105" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" ht="42">
+      <c r="A106" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B106" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" ht="42">
+      <c r="A107" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B107" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" ht="42">
+      <c r="A108" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B108" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" ht="42">
+      <c r="A109" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B109" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" ht="28">
+      <c r="A110" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B110" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" ht="28">
+      <c r="A111" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B111" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" ht="42">
+      <c r="A112" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B112" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" ht="42">
+      <c r="A113" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B113" s="3">
+        <v>42171</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" ht="42">
+      <c r="A114" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B114" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" ht="42">
+      <c r="A115" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B115" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" ht="28">
+      <c r="A116" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B116" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" ht="42">
+      <c r="A117" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B117" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" ht="28">
+      <c r="A118" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B118" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" ht="42">
+      <c r="A119" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B119" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" ht="42">
+      <c r="A120" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B120" s="3">
+        <v>42047</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" ht="42">
+      <c r="A121" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B121" s="3">
+        <v>42037</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" ht="28">
+      <c r="A122" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B122" s="3">
+        <v>42026</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" ht="28">
+      <c r="A123" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B123" s="3">
         <v>41938</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" ht="28">
-      <c r="A51" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" s="3">
-        <v>41938</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="4"/>
+      <c r="C123" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E123" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1781,9 +3484,80 @@
     <hyperlink ref="A49" r:id="rId46"/>
     <hyperlink ref="A50" r:id="rId47"/>
     <hyperlink ref="A51" r:id="rId48"/>
+    <hyperlink ref="A52" r:id="rId49"/>
+    <hyperlink ref="A53" r:id="rId50"/>
+    <hyperlink ref="A54" r:id="rId51"/>
+    <hyperlink ref="A55" r:id="rId52"/>
+    <hyperlink ref="A56" r:id="rId53"/>
+    <hyperlink ref="A57" r:id="rId54"/>
+    <hyperlink ref="A58" r:id="rId55"/>
+    <hyperlink ref="A59" r:id="rId56"/>
+    <hyperlink ref="A60" r:id="rId57"/>
+    <hyperlink ref="A61" r:id="rId58"/>
+    <hyperlink ref="A62" r:id="rId59"/>
+    <hyperlink ref="A63" r:id="rId60"/>
+    <hyperlink ref="A64" r:id="rId61"/>
+    <hyperlink ref="A65" r:id="rId62"/>
+    <hyperlink ref="A66" r:id="rId63"/>
+    <hyperlink ref="A67" r:id="rId64"/>
+    <hyperlink ref="A68" r:id="rId65"/>
+    <hyperlink ref="A69" r:id="rId66"/>
+    <hyperlink ref="A70" r:id="rId67"/>
+    <hyperlink ref="A71" r:id="rId68"/>
+    <hyperlink ref="A72" r:id="rId69"/>
+    <hyperlink ref="A73" r:id="rId70"/>
+    <hyperlink ref="A74" r:id="rId71"/>
+    <hyperlink ref="A75" r:id="rId72"/>
+    <hyperlink ref="A76" r:id="rId73"/>
+    <hyperlink ref="A77" r:id="rId74"/>
+    <hyperlink ref="A78" r:id="rId75"/>
+    <hyperlink ref="A79" r:id="rId76"/>
+    <hyperlink ref="A80" r:id="rId77"/>
+    <hyperlink ref="A81" r:id="rId78"/>
+    <hyperlink ref="A82" r:id="rId79"/>
+    <hyperlink ref="A83" r:id="rId80"/>
+    <hyperlink ref="A84" r:id="rId81"/>
+    <hyperlink ref="A85" r:id="rId82"/>
+    <hyperlink ref="A86" r:id="rId83"/>
+    <hyperlink ref="A87" r:id="rId84"/>
+    <hyperlink ref="A88" r:id="rId85"/>
+    <hyperlink ref="A89" r:id="rId86"/>
+    <hyperlink ref="A90" r:id="rId87"/>
+    <hyperlink ref="A91" r:id="rId88"/>
+    <hyperlink ref="A92" r:id="rId89"/>
+    <hyperlink ref="A93" r:id="rId90"/>
+    <hyperlink ref="A94" r:id="rId91"/>
+    <hyperlink ref="A95" r:id="rId92"/>
+    <hyperlink ref="A96" r:id="rId93"/>
+    <hyperlink ref="A97" r:id="rId94"/>
+    <hyperlink ref="A98" r:id="rId95"/>
+    <hyperlink ref="A99" r:id="rId96"/>
+    <hyperlink ref="A100" r:id="rId97"/>
+    <hyperlink ref="A101" r:id="rId98"/>
+    <hyperlink ref="A102" r:id="rId99"/>
+    <hyperlink ref="A103" r:id="rId100"/>
+    <hyperlink ref="A104" r:id="rId101"/>
+    <hyperlink ref="A105" r:id="rId102"/>
+    <hyperlink ref="A106" r:id="rId103"/>
+    <hyperlink ref="A107" r:id="rId104"/>
+    <hyperlink ref="A108" r:id="rId105"/>
+    <hyperlink ref="A109" r:id="rId106"/>
+    <hyperlink ref="A110" r:id="rId107"/>
+    <hyperlink ref="A111" r:id="rId108"/>
+    <hyperlink ref="A112" r:id="rId109"/>
+    <hyperlink ref="A113" r:id="rId110"/>
+    <hyperlink ref="A114" r:id="rId111"/>
+    <hyperlink ref="A115" r:id="rId112"/>
+    <hyperlink ref="A116" r:id="rId113"/>
+    <hyperlink ref="A117" r:id="rId114"/>
+    <hyperlink ref="A118" r:id="rId115"/>
+    <hyperlink ref="A119" r:id="rId116"/>
+    <hyperlink ref="A120" r:id="rId117"/>
+    <hyperlink ref="A121" r:id="rId118"/>
+    <hyperlink ref="A122" r:id="rId119"/>
+    <hyperlink ref="A123" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/?.xlsx
+++ b/assets/?.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="2560" yWindow="500" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="355">
   <si>
     <t>SHORTLISTED PROFILES</t>
   </si>
@@ -39,6 +39,42 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>T3181416</t>
+  </si>
+  <si>
+    <t>anu</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Yadav | United States of America | B.Tech. | Manager</t>
+  </si>
+  <si>
+    <t>M3386802</t>
+  </si>
+  <si>
+    <t>Divya.R</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | MBA | Designer</t>
+  </si>
+  <si>
+    <t>M3859464</t>
+  </si>
+  <si>
+    <t>Shwetha</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>T3179674</t>
+  </si>
+  <si>
+    <t>bhavani sri</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Naidu (Caste No Bar) | India | B.Tech. | Not working</t>
+  </si>
+  <si>
     <t>M3107670</t>
   </si>
   <si>
@@ -54,7 +90,7 @@
     <t>Dhivya Lakshmi</t>
   </si>
   <si>
-    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
   </si>
   <si>
     <t>M3380559</t>
@@ -126,24 +162,6 @@
     <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Vellalar | United States of America | BE | Software Professional</t>
   </si>
   <si>
-    <t>M3859464</t>
-  </si>
-  <si>
-    <t>Shwetha</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3386802</t>
-  </si>
-  <si>
-    <t>Divya.R</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | MBA | Designer</t>
-  </si>
-  <si>
     <t>M3916814</t>
   </si>
   <si>
@@ -357,15 +375,6 @@
     <t>22 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Pillai | United States of America | B.Tech. | Software Professional</t>
   </si>
   <si>
-    <t>M3907573</t>
-  </si>
-  <si>
-    <t>Hema</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
     <t>M3872177</t>
   </si>
   <si>
@@ -903,7 +912,7 @@
     <t>On Request</t>
   </si>
   <si>
-    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Naicker (Caste No Bar) | United States of America | MBA | Not working</t>
+    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Naicker (Caste No Bar) | United States of America | MBA | Manager</t>
   </si>
   <si>
     <t>M3597568</t>
@@ -1583,7 +1592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E2"/>
@@ -1631,12 +1640,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>42213</v>
+        <v>42215</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1646,12 +1655,12 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>42213</v>
+        <v>42215</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -1661,12 +1670,12 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="42">
+    <row r="6" spans="1:5" ht="28">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>42213</v>
+        <v>42215</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -1676,12 +1685,12 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="42">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>42212</v>
+        <v>42215</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>16</v>
@@ -1691,12 +1700,12 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="42">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3">
-        <v>42212</v>
+        <v>42213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -1706,12 +1715,12 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="28">
+    <row r="9" spans="1:5" ht="42">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>42211</v>
+        <v>42213</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1721,12 +1730,12 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="28">
+    <row r="10" spans="1:5" ht="42">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>42210</v>
+        <v>42213</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -1741,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="3">
-        <v>42207</v>
+        <v>42212</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>28</v>
@@ -1751,12 +1760,12 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="42">
+    <row r="12" spans="1:5" ht="28">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="3">
-        <v>42207</v>
+        <v>42212</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
@@ -1771,92 +1780,92 @@
         <v>33</v>
       </c>
       <c r="B13" s="3">
-        <v>42207</v>
+        <v>42211</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="28">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3">
-        <v>42207</v>
+        <v>42210</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="28">
+    <row r="15" spans="1:5" ht="42">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3">
         <v>42207</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="42">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3">
         <v>42207</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="28">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3">
         <v>42207</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="42">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3">
         <v>42207</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="42">
+    <row r="19" spans="1:5" ht="28">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1931,7 +1940,7 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="28">
+    <row r="24" spans="1:5" ht="42">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -1961,7 +1970,7 @@
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="42">
+    <row r="26" spans="1:5" ht="28">
       <c r="A26" s="2" t="s">
         <v>70</v>
       </c>
@@ -2006,7 +2015,7 @@
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="28">
+    <row r="29" spans="1:5" ht="42">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>82</v>
       </c>
       <c r="B30" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>83</v>
@@ -2036,12 +2045,12 @@
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="42">
+    <row r="31" spans="1:5" ht="28">
       <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>86</v>
@@ -2051,7 +2060,7 @@
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="28">
+    <row r="32" spans="1:5" ht="42">
       <c r="A32" s="2" t="s">
         <v>88</v>
       </c>
@@ -2066,7 +2075,7 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="28">
+    <row r="33" spans="1:5" ht="42">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
@@ -2081,7 +2090,7 @@
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="42">
+    <row r="34" spans="1:5" ht="28">
       <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
@@ -2111,12 +2120,12 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="28">
+    <row r="36" spans="1:5" ht="42">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B36" s="3">
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>101</v>
@@ -2126,12 +2135,12 @@
       </c>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="42">
+    <row r="37" spans="1:5" ht="28">
       <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B37" s="3">
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>104</v>
@@ -2141,7 +2150,7 @@
       </c>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="42">
+    <row r="38" spans="1:5" ht="28">
       <c r="A38" s="2" t="s">
         <v>106</v>
       </c>
@@ -2156,7 +2165,7 @@
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="28">
+    <row r="39" spans="1:5" ht="42">
       <c r="A39" s="2" t="s">
         <v>109</v>
       </c>
@@ -2186,7 +2195,7 @@
       </c>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="42">
+    <row r="41" spans="1:5" ht="28">
       <c r="A41" s="2" t="s">
         <v>115</v>
       </c>
@@ -2201,7 +2210,7 @@
       </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="28">
+    <row r="42" spans="1:5" ht="42">
       <c r="A42" s="2" t="s">
         <v>118</v>
       </c>
@@ -2224,22 +2233,22 @@
         <v>42205</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="42">
+    <row r="44" spans="1:5" ht="28">
       <c r="A44" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B44" s="3">
         <v>42205</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>125</v>
@@ -2261,7 +2270,7 @@
       </c>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" ht="28">
+    <row r="46" spans="1:5" ht="42">
       <c r="A46" s="2" t="s">
         <v>129</v>
       </c>
@@ -2299,29 +2308,29 @@
         <v>42205</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="42">
+    <row r="49" spans="1:5" ht="28">
       <c r="A49" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B49" s="3">
         <v>42205</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="28">
+    <row r="50" spans="1:5" ht="42">
       <c r="A50" s="2" t="s">
         <v>140</v>
       </c>
@@ -2336,7 +2345,7 @@
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="42">
+    <row r="51" spans="1:5" ht="28">
       <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
@@ -2366,7 +2375,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" ht="28">
+    <row r="53" spans="1:5" ht="42">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -2396,7 +2405,7 @@
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="42">
+    <row r="55" spans="1:5" ht="28">
       <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
@@ -2476,32 +2485,32 @@
         <v>170</v>
       </c>
       <c r="B60" s="3">
-        <v>42204</v>
+        <v>42205</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" ht="28">
+    <row r="61" spans="1:5" ht="42">
       <c r="A61" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B61" s="3">
         <v>42204</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" ht="42">
+    <row r="62" spans="1:5" ht="28">
       <c r="A62" s="2" t="s">
         <v>175</v>
       </c>
@@ -2521,7 +2530,7 @@
         <v>178</v>
       </c>
       <c r="B63" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>179</v>
@@ -2539,22 +2548,22 @@
         <v>42203</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="42">
       <c r="A65" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B65" s="3">
         <v>42203</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>185</v>
@@ -2576,7 +2585,7 @@
       </c>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="28">
+    <row r="67" spans="1:5" ht="42">
       <c r="A67" s="2" t="s">
         <v>189</v>
       </c>
@@ -2606,7 +2615,7 @@
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" ht="42">
+    <row r="69" spans="1:5" ht="28">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
@@ -2659,22 +2668,22 @@
         <v>42203</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" ht="28">
+    <row r="73" spans="1:5" ht="42">
       <c r="A73" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B73" s="3">
         <v>42203</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>208</v>
@@ -2771,7 +2780,7 @@
       </c>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:5" ht="42">
+    <row r="80" spans="1:5" ht="28">
       <c r="A80" s="2" t="s">
         <v>227</v>
       </c>
@@ -2786,7 +2795,7 @@
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:5" ht="28">
+    <row r="81" spans="1:5" ht="42">
       <c r="A81" s="2" t="s">
         <v>230</v>
       </c>
@@ -2801,7 +2810,7 @@
       </c>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="1:5" ht="42">
+    <row r="82" spans="1:5" ht="28">
       <c r="A82" s="2" t="s">
         <v>233</v>
       </c>
@@ -2816,7 +2825,7 @@
       </c>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:5" ht="28">
+    <row r="83" spans="1:5" ht="42">
       <c r="A83" s="2" t="s">
         <v>236</v>
       </c>
@@ -2831,7 +2840,7 @@
       </c>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="1:5" ht="42">
+    <row r="84" spans="1:5" ht="28">
       <c r="A84" s="2" t="s">
         <v>239</v>
       </c>
@@ -2861,7 +2870,7 @@
       </c>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" ht="28">
+    <row r="86" spans="1:5" ht="42">
       <c r="A86" s="2" t="s">
         <v>245</v>
       </c>
@@ -2876,7 +2885,7 @@
       </c>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" ht="42">
+    <row r="87" spans="1:5" ht="28">
       <c r="A87" s="2" t="s">
         <v>248</v>
       </c>
@@ -2891,7 +2900,7 @@
       </c>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5" ht="28">
+    <row r="88" spans="1:5" ht="42">
       <c r="A88" s="2" t="s">
         <v>251</v>
       </c>
@@ -2906,7 +2915,7 @@
       </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" ht="42">
+    <row r="89" spans="1:5" ht="28">
       <c r="A89" s="2" t="s">
         <v>254</v>
       </c>
@@ -2951,7 +2960,7 @@
       </c>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5" ht="28">
+    <row r="92" spans="1:5" ht="42">
       <c r="A92" s="2" t="s">
         <v>263</v>
       </c>
@@ -2966,7 +2975,7 @@
       </c>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5" ht="42">
+    <row r="93" spans="1:5" ht="28">
       <c r="A93" s="2" t="s">
         <v>266</v>
       </c>
@@ -3019,22 +3028,22 @@
         <v>42203</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="42">
       <c r="A97" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B97" s="3">
         <v>42203</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>279</v>
@@ -3146,7 +3155,7 @@
       </c>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" ht="42">
+    <row r="105" spans="1:5" ht="28">
       <c r="A105" s="2" t="s">
         <v>301</v>
       </c>
@@ -3181,52 +3190,52 @@
         <v>307</v>
       </c>
       <c r="B107" s="3">
-        <v>42195</v>
+        <v>42203</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>7</v>
+        <v>308</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" ht="42">
       <c r="A108" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B108" s="3">
         <v>42195</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" ht="42">
       <c r="A109" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B109" s="3">
         <v>42195</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>313</v>
       </c>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:5" ht="28">
+    <row r="110" spans="1:5" ht="42">
       <c r="A110" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B110" s="3">
-        <v>42176</v>
+        <v>42195</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>315</v>
@@ -3251,7 +3260,7 @@
       </c>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:5" ht="42">
+    <row r="112" spans="1:5" ht="28">
       <c r="A112" s="2" t="s">
         <v>320</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>323</v>
       </c>
       <c r="B113" s="3">
-        <v>42171</v>
+        <v>42176</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>324</v>
@@ -3286,32 +3295,32 @@
         <v>326</v>
       </c>
       <c r="B114" s="3">
-        <v>42169</v>
+        <v>42171</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" ht="42">
       <c r="A115" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B115" s="3">
         <v>42169</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>330</v>
       </c>
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="1:5" ht="28">
+    <row r="116" spans="1:5" ht="42">
       <c r="A116" s="2" t="s">
         <v>331</v>
       </c>
@@ -3326,37 +3335,37 @@
       </c>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="1:5" ht="42">
+    <row r="117" spans="1:5" ht="28">
       <c r="A117" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B117" s="3">
-        <v>42168</v>
+        <v>42169</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>7</v>
+        <v>335</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="1:5" ht="28">
+    <row r="118" spans="1:5" ht="42">
       <c r="A118" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B118" s="3">
         <v>42168</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>337</v>
+        <v>19</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="1:5" ht="42">
+    <row r="119" spans="1:5" ht="28">
       <c r="A119" s="2" t="s">
         <v>339</v>
       </c>
@@ -3376,7 +3385,7 @@
         <v>342</v>
       </c>
       <c r="B120" s="3">
-        <v>42047</v>
+        <v>42168</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>343</v>
@@ -3391,25 +3400,25 @@
         <v>345</v>
       </c>
       <c r="B121" s="3">
+        <v>42047</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" ht="42">
+      <c r="A122" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B122" s="3">
         <v>42037</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:5" ht="28">
-      <c r="A122" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B122" s="3">
-        <v>42026</v>
-      </c>
       <c r="C122" s="5" t="s">
-        <v>348</v>
+        <v>19</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>349</v>
@@ -3421,15 +3430,30 @@
         <v>350</v>
       </c>
       <c r="B123" s="3">
-        <v>41938</v>
+        <v>42026</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>351</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" ht="28">
+      <c r="A124" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B124" s="3">
+        <v>41938</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E124" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3556,6 +3580,7 @@
     <hyperlink ref="A121" r:id="rId118"/>
     <hyperlink ref="A122" r:id="rId119"/>
     <hyperlink ref="A123" r:id="rId120"/>
+    <hyperlink ref="A124" r:id="rId121"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/assets/?.xlsx
+++ b/assets/?.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="500" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="413">
   <si>
     <t>SHORTLISTED PROFILES</t>
   </si>
@@ -39,6 +39,186 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>M3832187</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Intercaste (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3747014</t>
+  </si>
+  <si>
+    <t>S.Priadharsini</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Vellalar | United States of America | BE | Human Resources Professional</t>
+  </si>
+  <si>
+    <t>M1485904</t>
+  </si>
+  <si>
+    <t>Dr .V.J</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Chettiar (Caste No Bar) | United States of America | MD / MS (Medical) | Doctor</t>
+  </si>
+  <si>
+    <t>M3816872</t>
+  </si>
+  <si>
+    <t>Nithya</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3178992</t>
+  </si>
+  <si>
+    <t>Vinitha</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Vellalar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3947473</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3584524</t>
+  </si>
+  <si>
+    <t>Akila</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Chettiar (Caste No Bar) | United States of America | MD / MS (Medical) | Doctor</t>
+  </si>
+  <si>
+    <t>M3133183</t>
+  </si>
+  <si>
+    <t>N Sindhu</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3530649</t>
+  </si>
+  <si>
+    <t>S Priya</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3803638</t>
+  </si>
+  <si>
+    <t>Deepa</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Chettiar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3399449</t>
+  </si>
+  <si>
+    <t>JAYASHRI</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3802385</t>
+  </si>
+  <si>
+    <t>Nandita Jayaprakash</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3146898</t>
+  </si>
+  <si>
+    <t>Jeevitha K</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3279248</t>
+  </si>
+  <si>
+    <t>P.Priyadharshini</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Vellalar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M2913907</t>
+  </si>
+  <si>
+    <t>MALINI KARUNAGARAN</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3949186</t>
+  </si>
+  <si>
+    <t>Meera Priyadharsini</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3953700</t>
+  </si>
+  <si>
+    <t>Arul Amudha</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3954519</t>
+  </si>
+  <si>
+    <t>Abinaya</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3953076</t>
+  </si>
+  <si>
+    <t>Abhinaya Jayakumar</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3953824</t>
+  </si>
+  <si>
+    <t>sow.akshaya</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Brahmin - Iyengar, Gothra : Harithasa | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
     <t>T3181416</t>
   </si>
   <si>
@@ -78,9 +258,6 @@
     <t>M3107670</t>
   </si>
   <si>
-    <t>Later</t>
-  </si>
-  <si>
     <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
   </si>
   <si>
@@ -141,9 +318,6 @@
     <t>M3682647</t>
   </si>
   <si>
-    <t>Abinaya</t>
-  </si>
-  <si>
     <t>24 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | B.Tech. | Software Professional</t>
   </si>
   <si>
@@ -234,9 +408,6 @@
     <t>M3840588</t>
   </si>
   <si>
-    <t>Nithya</t>
-  </si>
-  <si>
     <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | B.Tech. | Software Professional</t>
   </si>
   <si>
@@ -405,7 +576,7 @@
     <t>Maya Selvan</t>
   </si>
   <si>
-    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Vellalar (Caste No Bar) | United States of America | MBA | Not working</t>
+    <t>28 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Vellalar (Caste No Bar) | United States of America | MBA | Not working</t>
   </si>
   <si>
     <t>M2104832</t>
@@ -541,6 +712,9 @@
   </si>
   <si>
     <t>M3800099</t>
+  </si>
+  <si>
+    <t>Ashwinya</t>
   </si>
   <si>
     <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Thuluva (Caste No Bar) | United States of America | M.S.(Engg.) | Hardware Professional</t>
@@ -1592,7 +1766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E2"/>
@@ -1640,12 +1814,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="42">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>42215</v>
+        <v>42218</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1655,12 +1829,12 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>42215</v>
+        <v>42218</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -1670,12 +1844,12 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="28">
+    <row r="6" spans="1:5" ht="42">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>42215</v>
+        <v>42218</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -1685,12 +1859,12 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="28">
+    <row r="7" spans="1:5" ht="42">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>42215</v>
+        <v>42218</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>16</v>
@@ -1705,7 +1879,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3">
-        <v>42213</v>
+        <v>42218</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -1720,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>42213</v>
+        <v>42218</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1735,7 +1909,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>42213</v>
+        <v>42218</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -1750,7 +1924,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="3">
-        <v>42212</v>
+        <v>42218</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>28</v>
@@ -1760,12 +1934,12 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="28">
+    <row r="12" spans="1:5" ht="42">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="3">
-        <v>42212</v>
+        <v>42218</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
@@ -1775,12 +1949,12 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="28">
+    <row r="13" spans="1:5" ht="42">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="3">
-        <v>42211</v>
+        <v>42218</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>34</v>
@@ -1790,12 +1964,12 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="28">
+    <row r="14" spans="1:5" ht="42">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="3">
-        <v>42210</v>
+        <v>42218</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>37</v>
@@ -1810,7 +1984,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>40</v>
@@ -1825,7 +1999,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>43</v>
@@ -1835,285 +2009,285 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="28">
+    <row r="17" spans="1:5" ht="42">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="42">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="28">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="42">
+    <row r="20" spans="1:5" ht="28">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="42">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="42">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="42">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="42">
+    <row r="24" spans="1:5" ht="28">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3">
-        <v>42207</v>
+        <v>42215</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="42">
+    <row r="25" spans="1:5" ht="28">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3">
-        <v>42207</v>
+        <v>42215</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="28">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3">
-        <v>42207</v>
+        <v>42215</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="42">
+    <row r="27" spans="1:5" ht="28">
       <c r="A27" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" s="3">
-        <v>42207</v>
+        <v>42215</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="42">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B28" s="3">
-        <v>42207</v>
+        <v>42213</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="42">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="3">
-        <v>42207</v>
+        <v>42213</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="42">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="3">
-        <v>42207</v>
+        <v>42213</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="28">
+    <row r="31" spans="1:5" ht="42">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="3">
-        <v>42207</v>
+        <v>42212</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="42">
+    <row r="32" spans="1:5" ht="28">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" s="3">
-        <v>42206</v>
+        <v>42212</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="42">
+    <row r="33" spans="1:5" ht="28">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B33" s="3">
-        <v>42206</v>
+        <v>42211</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="28">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="3">
-        <v>42206</v>
+        <v>42210</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="28">
+    <row r="35" spans="1:5" ht="42">
       <c r="A35" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B35" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>99</v>
@@ -2125,7 +2299,7 @@
         <v>100</v>
       </c>
       <c r="B36" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>101</v>
@@ -2140,382 +2314,382 @@
         <v>103</v>
       </c>
       <c r="B37" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="42">
+      <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="28">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="28">
+      <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="B39" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" ht="42">
-      <c r="A39" s="2" t="s">
+      <c r="D39" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="B39" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="42">
       <c r="A40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="42">
+      <c r="A41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="B41" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="28">
-      <c r="A41" s="2" t="s">
+      <c r="D41" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B41" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="42">
       <c r="A42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="42">
+      <c r="A43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="B43" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" ht="28">
-      <c r="A43" s="2" t="s">
+      <c r="D43" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="42">
+      <c r="A44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="B44" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="28">
-      <c r="A44" s="2" t="s">
+      <c r="D44" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B44" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="42">
       <c r="A45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" ht="28">
+      <c r="A46" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="42">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="42">
+      <c r="A47" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="B47" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="28">
-      <c r="A47" s="2" t="s">
+      <c r="D47" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="42">
+      <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="B48" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" ht="28">
-      <c r="A48" s="2" t="s">
+      <c r="D48" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="42">
+      <c r="A49" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="B49" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" ht="28">
-      <c r="A49" s="2" t="s">
+      <c r="D49" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B49" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="42">
       <c r="A50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="28">
       <c r="A51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="42">
       <c r="A52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="42">
       <c r="A53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B53" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="28">
       <c r="A54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="28">
       <c r="A55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="42">
       <c r="A56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" ht="28">
+      <c r="A57" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" ht="42">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B57" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="28">
+      <c r="A58" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" ht="42">
-      <c r="A58" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="B58" s="3">
         <v>42205</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="42">
       <c r="A59" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B59" s="3">
         <v>42205</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="42">
       <c r="A60" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B60" s="3">
         <v>42205</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="28">
+      <c r="A61" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" ht="42">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B61" s="3">
-        <v>42204</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" ht="28">
+    <row r="62" spans="1:5" ht="42">
       <c r="A62" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B62" s="3">
-        <v>42204</v>
+        <v>42205</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>176</v>
@@ -2525,12 +2699,12 @@
       </c>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" ht="42">
+    <row r="63" spans="1:5" ht="28">
       <c r="A63" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B63" s="3">
-        <v>42204</v>
+        <v>42205</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>179</v>
@@ -2540,30 +2714,30 @@
       </c>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" ht="42">
+    <row r="64" spans="1:5" ht="28">
       <c r="A64" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B64" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="42">
       <c r="A65" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="B65" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>185</v>
@@ -2575,7 +2749,7 @@
         <v>186</v>
       </c>
       <c r="B66" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>187</v>
@@ -2585,12 +2759,12 @@
       </c>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="42">
+    <row r="67" spans="1:5" ht="28">
       <c r="A67" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B67" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>190</v>
@@ -2605,7 +2779,7 @@
         <v>192</v>
       </c>
       <c r="B68" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>193</v>
@@ -2620,70 +2794,70 @@
         <v>195</v>
       </c>
       <c r="B69" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="42">
       <c r="A70" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B70" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" ht="28">
+      <c r="A71" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" ht="42">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B71" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="42">
       <c r="A72" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B72" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="42">
       <c r="A73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="B73" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>208</v>
@@ -2695,7 +2869,7 @@
         <v>209</v>
       </c>
       <c r="B74" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>210</v>
@@ -2710,7 +2884,7 @@
         <v>212</v>
       </c>
       <c r="B75" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>213</v>
@@ -2720,12 +2894,12 @@
       </c>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" ht="28">
+    <row r="76" spans="1:5" ht="42">
       <c r="A76" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B76" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>216</v>
@@ -2735,12 +2909,12 @@
       </c>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:5" ht="28">
+    <row r="77" spans="1:5" ht="42">
       <c r="A77" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B77" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>219</v>
@@ -2750,12 +2924,12 @@
       </c>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:5" ht="28">
+    <row r="78" spans="1:5" ht="42">
       <c r="A78" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B78" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>222</v>
@@ -2765,12 +2939,12 @@
       </c>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5" ht="28">
+    <row r="79" spans="1:5" ht="42">
       <c r="A79" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B79" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>225</v>
@@ -2780,12 +2954,12 @@
       </c>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:5" ht="28">
+    <row r="80" spans="1:5" ht="42">
       <c r="A80" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B80" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>228</v>
@@ -2800,7 +2974,7 @@
         <v>230</v>
       </c>
       <c r="B81" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>231</v>
@@ -2815,7 +2989,7 @@
         <v>233</v>
       </c>
       <c r="B82" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>234</v>
@@ -2830,7 +3004,7 @@
         <v>236</v>
       </c>
       <c r="B83" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>237</v>
@@ -2840,7 +3014,7 @@
       </c>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="1:5" ht="28">
+    <row r="84" spans="1:5" ht="42">
       <c r="A84" s="2" t="s">
         <v>239</v>
       </c>
@@ -2863,597 +3037,897 @@
         <v>42203</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="42">
       <c r="A86" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B86" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B86" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" ht="42">
+      <c r="A87" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" ht="28">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B87" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" ht="28">
+      <c r="A88" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" ht="42">
-      <c r="A88" s="2" t="s">
+      <c r="B88" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B88" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="28">
       <c r="A89" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B89" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B89" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="42">
       <c r="A90" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B90" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B90" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" ht="42">
       <c r="A91" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B91" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B91" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="42">
       <c r="A92" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B92" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B92" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" ht="42">
+      <c r="A93" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" ht="28">
-      <c r="A93" s="2" t="s">
+      <c r="B93" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B93" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C93" s="5" t="s">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" ht="28">
+      <c r="A94" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="B94" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" ht="42">
-      <c r="A94" s="2" t="s">
+      <c r="D94" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B94" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C94" s="5" t="s">
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" ht="28">
+      <c r="A95" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="B95" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" ht="42">
-      <c r="A95" s="2" t="s">
+      <c r="D95" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B95" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C95" s="5" t="s">
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" ht="28">
+      <c r="A96" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="B96" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" ht="42">
-      <c r="A96" s="2" t="s">
+      <c r="D96" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B96" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C96" s="5" t="s">
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" ht="28">
+      <c r="A97" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="B97" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" ht="42">
-      <c r="A97" s="2" t="s">
+      <c r="D97" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B97" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" ht="28">
+      <c r="A98" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" ht="42">
-      <c r="A98" s="2" t="s">
+      <c r="B98" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B98" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C98" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" ht="28">
+      <c r="A99" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" ht="42">
-      <c r="A99" s="2" t="s">
+      <c r="B99" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B99" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C99" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" ht="28">
+      <c r="A100" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" ht="42">
-      <c r="A100" s="2" t="s">
+      <c r="B100" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B100" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" ht="42">
       <c r="A101" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B101" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B101" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" ht="28">
+      <c r="A102" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5" ht="42">
-      <c r="A102" s="2" t="s">
+      <c r="B102" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B102" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" ht="42">
+      <c r="A103" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" ht="28">
-      <c r="A103" s="2" t="s">
+      <c r="B103" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B103" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" ht="28">
       <c r="A104" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B104" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" ht="42">
+      <c r="A105" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5" ht="28">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B105" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="42">
       <c r="A106" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B106" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B106" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" ht="28">
+      <c r="A107" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" ht="42">
-      <c r="A107" s="2" t="s">
+      <c r="B107" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B107" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" ht="42">
       <c r="A108" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B108" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="B108" s="3">
-        <v>42195</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>311</v>
       </c>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" ht="42">
+    <row r="109" spans="1:5" ht="28">
       <c r="A109" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B109" s="3">
-        <v>42195</v>
+        <v>42203</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" ht="42">
       <c r="A110" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B110" s="3">
-        <v>42195</v>
+        <v>42203</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" ht="28">
+    <row r="111" spans="1:5" ht="42">
       <c r="A111" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B111" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:5" ht="28">
+    <row r="112" spans="1:5" ht="42">
       <c r="A112" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B112" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="1:5" ht="42">
+    <row r="113" spans="1:5" ht="28">
       <c r="A113" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B113" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" ht="42">
       <c r="A114" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B114" s="3">
-        <v>42171</v>
+        <v>42203</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" ht="42">
       <c r="A115" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B115" s="3">
-        <v>42169</v>
+        <v>42203</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5" ht="42">
       <c r="A116" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B116" s="3">
-        <v>42169</v>
+        <v>42203</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="1:5" ht="28">
+    <row r="117" spans="1:5" ht="42">
       <c r="A117" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B117" s="3">
-        <v>42169</v>
+        <v>42203</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>335</v>
+        <v>22</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" ht="42">
       <c r="A118" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B118" s="3">
-        <v>42168</v>
+        <v>42203</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>19</v>
+        <v>339</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="1:5" ht="28">
+    <row r="119" spans="1:5" ht="42">
       <c r="A119" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B119" s="3">
-        <v>42168</v>
+        <v>42203</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5" ht="42">
       <c r="A120" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B120" s="3">
-        <v>42168</v>
+        <v>42203</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" ht="42">
       <c r="A121" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B121" s="3">
-        <v>42047</v>
+        <v>42203</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5" ht="42">
       <c r="A122" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B122" s="3">
-        <v>42037</v>
+        <v>42203</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E122" s="4"/>
     </row>
     <row r="123" spans="1:5" ht="28">
       <c r="A123" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B123" s="3">
-        <v>42026</v>
+        <v>42203</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5" ht="28">
       <c r="A124" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B124" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" ht="28">
+      <c r="A125" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B125" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" ht="42">
+      <c r="A126" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B126" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" ht="42">
+      <c r="A127" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B127" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" ht="42">
+      <c r="A128" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B128" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" ht="42">
+      <c r="A129" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B129" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" ht="42">
+      <c r="A130" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B130" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" ht="28">
+      <c r="A131" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B131" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" ht="28">
+      <c r="A132" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B132" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" ht="42">
+      <c r="A133" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B133" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" ht="42">
+      <c r="A134" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B134" s="3">
+        <v>42171</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" ht="42">
+      <c r="A135" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B135" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" ht="42">
+      <c r="A136" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B136" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" ht="28">
+      <c r="A137" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B137" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" ht="42">
+      <c r="A138" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B138" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" ht="28">
+      <c r="A139" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B139" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" ht="42">
+      <c r="A140" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B140" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" ht="42">
+      <c r="A141" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B141" s="3">
+        <v>42047</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" ht="42">
+      <c r="A142" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B142" s="3">
+        <v>42037</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" ht="28">
+      <c r="A143" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B143" s="3">
+        <v>42026</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" ht="28">
+      <c r="A144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B144" s="3">
         <v>41938</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E124" s="4"/>
+      <c r="C144" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E144" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3581,6 +4055,26 @@
     <hyperlink ref="A122" r:id="rId119"/>
     <hyperlink ref="A123" r:id="rId120"/>
     <hyperlink ref="A124" r:id="rId121"/>
+    <hyperlink ref="A125" r:id="rId122"/>
+    <hyperlink ref="A126" r:id="rId123"/>
+    <hyperlink ref="A127" r:id="rId124"/>
+    <hyperlink ref="A128" r:id="rId125"/>
+    <hyperlink ref="A129" r:id="rId126"/>
+    <hyperlink ref="A130" r:id="rId127"/>
+    <hyperlink ref="A131" r:id="rId128"/>
+    <hyperlink ref="A132" r:id="rId129"/>
+    <hyperlink ref="A133" r:id="rId130"/>
+    <hyperlink ref="A134" r:id="rId131"/>
+    <hyperlink ref="A135" r:id="rId132"/>
+    <hyperlink ref="A136" r:id="rId133"/>
+    <hyperlink ref="A137" r:id="rId134"/>
+    <hyperlink ref="A138" r:id="rId135"/>
+    <hyperlink ref="A139" r:id="rId136"/>
+    <hyperlink ref="A140" r:id="rId137"/>
+    <hyperlink ref="A141" r:id="rId138"/>
+    <hyperlink ref="A142" r:id="rId139"/>
+    <hyperlink ref="A143" r:id="rId140"/>
+    <hyperlink ref="A144" r:id="rId141"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/assets/?.xlsx
+++ b/assets/?.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="1300" yWindow="980" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="439">
   <si>
     <t>SHORTLISTED PROFILES</t>
   </si>
@@ -39,6 +39,96 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>M3737308</t>
+  </si>
+  <si>
+    <t>Sindu Ramalingam</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Chettiar | United States of America | M.Sc. IT / Computer Science | Software Professional</t>
+  </si>
+  <si>
+    <t>T2934737</t>
+  </si>
+  <si>
+    <t>praveena</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Reddy | United States of America | M.Pharm | Software Professional</t>
+  </si>
+  <si>
+    <t>M3880565</t>
+  </si>
+  <si>
+    <t>Jeyasri</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vellalar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3448307</t>
+  </si>
+  <si>
+    <t>Swathi.V</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Pillai | India | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3909041</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nair (Caste No Bar) | India | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>T3070562</t>
+  </si>
+  <si>
+    <t>Sarala S</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Kamma | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>T2271086</t>
+  </si>
+  <si>
+    <t>Anusha Obbilisetty</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Arya Vysya | United States of America | M.S.(Engg.) | Consultant</t>
+  </si>
+  <si>
+    <t>T2641470</t>
+  </si>
+  <si>
+    <t>S Sagar</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Kapu | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3730671</t>
+  </si>
+  <si>
+    <t>Deepa Narayanan</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Brahmin - Iyer, Gothra : Bharadwaj | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3353874</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Vishwakarma | Sweden | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
     <t>M3832187</t>
   </si>
   <si>
@@ -87,9 +177,6 @@
     <t>M3947473</t>
   </si>
   <si>
-    <t>Later</t>
-  </si>
-  <si>
     <t>24 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Not working</t>
   </si>
   <si>
@@ -249,7 +336,7 @@
     <t>T3179674</t>
   </si>
   <si>
-    <t>bhavani sri</t>
+    <t>bhavani</t>
   </si>
   <si>
     <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Naidu (Caste No Bar) | India | B.Tech. | Not working</t>
@@ -537,15 +624,6 @@
     <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Yadav (Caste No Bar) | United States of America | M.S.(Engg.) | Marketing Professional</t>
   </si>
   <si>
-    <t>M3894700</t>
-  </si>
-  <si>
-    <t>Gita</t>
-  </si>
-  <si>
-    <t>22 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Pillai | United States of America | B.Tech. | Software Professional</t>
-  </si>
-  <si>
     <t>M3872177</t>
   </si>
   <si>
@@ -681,7 +759,7 @@
     <t>Sruthi</t>
   </si>
   <si>
-    <t>28 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Executive</t>
+    <t>29 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Executive</t>
   </si>
   <si>
     <t>M3806267</t>
@@ -750,7 +828,7 @@
     <t>M3921056</t>
   </si>
   <si>
-    <t>26 Yrs, 5 Ft 8 In / 173 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar (Caste No Bar) | United States of America | M.S.(Engg.) | Consultant</t>
+    <t>26 Yrs, 5 Ft 8 In / 173 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
   </si>
   <si>
     <t>M3939876</t>
@@ -891,7 +969,7 @@
     <t>Omshri</t>
   </si>
   <si>
-    <t>26 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Vokkaliga (Caste No Bar) | United States of America | BE | Engineer - Non IT</t>
+    <t>26 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Vokkaliga | United States of America | BE | Engineer - Non IT</t>
   </si>
   <si>
     <t>M3624025</t>
@@ -1766,7 +1844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E2"/>
@@ -1819,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>42218</v>
+        <v>42223</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1829,12 +1907,12 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>42218</v>
+        <v>42222</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -1844,12 +1922,12 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="42">
+    <row r="6" spans="1:5" ht="28">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>42218</v>
+        <v>42222</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -1859,12 +1937,12 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="42">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>42218</v>
+        <v>42221</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>16</v>
@@ -1874,12 +1952,12 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="42">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -1894,7 +1972,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1904,12 +1982,12 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="42">
+    <row r="10" spans="1:5" ht="28">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -1924,7 +2002,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="3">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>28</v>
@@ -1939,7 +2017,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="3">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
@@ -1949,12 +2027,12 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="42">
+    <row r="13" spans="1:5" ht="28">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="3">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>34</v>
@@ -2039,7 +2117,7 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="28">
+    <row r="19" spans="1:5" ht="42">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -2047,154 +2125,154 @@
         <v>42218</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="42">
+      <c r="A20" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="28">
-      <c r="A20" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="B20" s="3">
         <v>42218</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="42">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3">
         <v>42218</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="42">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3">
         <v>42218</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="42">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3">
         <v>42218</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="42">
+      <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="28">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="3">
-        <v>42215</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="42">
+      <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="28">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="3">
-        <v>42215</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="42">
+      <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="28">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="3">
-        <v>42215</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="42">
+      <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="28">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="3">
-        <v>42215</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="42">
       <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B28" s="3">
-        <v>42213</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="42">
+    <row r="29" spans="1:5" ht="28">
       <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="3">
-        <v>42213</v>
+        <v>42218</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>81</v>
@@ -2204,12 +2282,12 @@
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="42">
+    <row r="30" spans="1:5" ht="28">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B30" s="3">
-        <v>42213</v>
+        <v>42218</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>84</v>
@@ -2224,7 +2302,7 @@
         <v>86</v>
       </c>
       <c r="B31" s="3">
-        <v>42212</v>
+        <v>42218</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>87</v>
@@ -2234,12 +2312,12 @@
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="28">
+    <row r="32" spans="1:5" ht="42">
       <c r="A32" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="3">
-        <v>42212</v>
+        <v>42218</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>90</v>
@@ -2249,12 +2327,12 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="28">
+    <row r="33" spans="1:5" ht="42">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="3">
-        <v>42211</v>
+        <v>42218</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>93</v>
@@ -2269,7 +2347,7 @@
         <v>95</v>
       </c>
       <c r="B34" s="3">
-        <v>42210</v>
+        <v>42215</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>96</v>
@@ -2279,217 +2357,217 @@
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="42">
+    <row r="35" spans="1:5" ht="28">
       <c r="A35" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B35" s="3">
-        <v>42207</v>
+        <v>42215</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="42">
+    <row r="36" spans="1:5" ht="28">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3">
-        <v>42207</v>
+        <v>42215</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="28">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="3">
-        <v>42207</v>
+        <v>42215</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="42">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="3">
-        <v>42207</v>
+        <v>42213</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="28">
+    <row r="39" spans="1:5" ht="42">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B39" s="3">
-        <v>42207</v>
+        <v>42213</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="42">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B40" s="3">
-        <v>42207</v>
+        <v>42213</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="42">
       <c r="A41" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B41" s="3">
-        <v>42207</v>
+        <v>42212</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="42">
+    <row r="42" spans="1:5" ht="28">
       <c r="A42" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B42" s="3">
-        <v>42207</v>
+        <v>42212</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="42">
+    <row r="43" spans="1:5" ht="28">
       <c r="A43" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B43" s="3">
-        <v>42207</v>
+        <v>42211</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="42">
+    <row r="44" spans="1:5" ht="28">
       <c r="A44" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B44" s="3">
-        <v>42207</v>
+        <v>42210</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="42">
       <c r="A45" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B45" s="3">
         <v>42207</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" ht="28">
+    <row r="46" spans="1:5" ht="42">
       <c r="A46" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B46" s="3">
         <v>42207</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="42">
+    <row r="47" spans="1:5" ht="28">
       <c r="A47" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B47" s="3">
         <v>42207</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="42">
       <c r="A48" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B48" s="3">
         <v>42207</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="42">
+    <row r="49" spans="1:5" ht="28">
       <c r="A49" s="2" t="s">
         <v>136</v>
       </c>
@@ -2519,7 +2597,7 @@
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="28">
+    <row r="51" spans="1:5" ht="42">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
@@ -2539,7 +2617,7 @@
         <v>145</v>
       </c>
       <c r="B52" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>146</v>
@@ -2554,7 +2632,7 @@
         <v>148</v>
       </c>
       <c r="B53" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>149</v>
@@ -2564,12 +2642,12 @@
       </c>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="28">
+    <row r="54" spans="1:5" ht="42">
       <c r="A54" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B54" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>152</v>
@@ -2579,12 +2657,12 @@
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="28">
+    <row r="55" spans="1:5" ht="42">
       <c r="A55" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B55" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>155</v>
@@ -2594,147 +2672,147 @@
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="42">
+    <row r="56" spans="1:5" ht="28">
       <c r="A56" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B56" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" ht="42">
+      <c r="A57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" ht="28">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="3">
-        <v>42206</v>
-      </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="42">
+      <c r="A58" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" ht="28">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="42">
       <c r="A59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="42">
       <c r="A60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B60" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="28">
       <c r="A61" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B61" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="42">
       <c r="A62" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B62" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" ht="42">
+      <c r="A63" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" ht="28">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="28">
       <c r="A64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B64" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>182</v>
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" ht="42">
+    <row r="65" spans="1:5" ht="28">
       <c r="A65" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B65" s="3">
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>184</v>
@@ -2749,7 +2827,7 @@
         <v>186</v>
       </c>
       <c r="B66" s="3">
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>187</v>
@@ -2764,7 +2842,7 @@
         <v>189</v>
       </c>
       <c r="B67" s="3">
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>190</v>
@@ -2789,7 +2867,7 @@
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" ht="28">
+    <row r="69" spans="1:5" ht="42">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
@@ -2797,74 +2875,74 @@
         <v>42205</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="42">
       <c r="A70" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B70" s="3">
         <v>42205</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" ht="28">
+    <row r="71" spans="1:5" ht="42">
       <c r="A71" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B71" s="3">
         <v>42205</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:5" ht="42">
+    <row r="72" spans="1:5" ht="28">
       <c r="A72" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B72" s="3">
         <v>42205</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" ht="42">
+    <row r="73" spans="1:5" ht="28">
       <c r="A73" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B73" s="3">
         <v>42205</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>208</v>
       </c>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:5" ht="28">
+    <row r="74" spans="1:5" ht="42">
       <c r="A74" s="2" t="s">
         <v>209</v>
       </c>
@@ -2879,7 +2957,7 @@
       </c>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" ht="28">
+    <row r="75" spans="1:5" ht="42">
       <c r="A75" s="2" t="s">
         <v>212</v>
       </c>
@@ -2894,7 +2972,7 @@
       </c>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" ht="42">
+    <row r="76" spans="1:5" ht="28">
       <c r="A76" s="2" t="s">
         <v>215</v>
       </c>
@@ -2909,7 +2987,7 @@
       </c>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:5" ht="42">
+    <row r="77" spans="1:5" ht="28">
       <c r="A77" s="2" t="s">
         <v>218</v>
       </c>
@@ -2924,7 +3002,7 @@
       </c>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:5" ht="42">
+    <row r="78" spans="1:5" ht="28">
       <c r="A78" s="2" t="s">
         <v>221</v>
       </c>
@@ -2932,112 +3010,112 @@
         <v>42205</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="42">
       <c r="A79" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B79" s="3">
         <v>42205</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" ht="28">
+      <c r="A80" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" ht="42">
-      <c r="A80" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="B80" s="3">
         <v>42205</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="42">
       <c r="A81" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B81" s="3">
-        <v>42204</v>
-      </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" ht="42">
+      <c r="A82" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" ht="28">
-      <c r="A82" s="2" t="s">
+      <c r="B82" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B82" s="3">
-        <v>42204</v>
-      </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" ht="28">
+      <c r="A83" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" ht="42">
-      <c r="A83" s="2" t="s">
+      <c r="B83" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B83" s="3">
-        <v>42204</v>
-      </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" ht="28">
+      <c r="A84" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5" ht="42">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B84" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="42">
       <c r="A85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B85" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="B85" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>243</v>
@@ -3049,7 +3127,7 @@
         <v>244</v>
       </c>
       <c r="B86" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>245</v>
@@ -3064,7 +3142,7 @@
         <v>247</v>
       </c>
       <c r="B87" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>248</v>
@@ -3074,12 +3152,12 @@
       </c>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5" ht="28">
+    <row r="88" spans="1:5" ht="42">
       <c r="A88" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B88" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>251</v>
@@ -3089,12 +3167,12 @@
       </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" ht="28">
+    <row r="89" spans="1:5" ht="42">
       <c r="A89" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B89" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>254</v>
@@ -3109,7 +3187,7 @@
         <v>256</v>
       </c>
       <c r="B90" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>257</v>
@@ -3119,12 +3197,12 @@
       </c>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" ht="42">
+    <row r="91" spans="1:5" ht="28">
       <c r="A91" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B91" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>260</v>
@@ -3139,7 +3217,7 @@
         <v>262</v>
       </c>
       <c r="B92" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>263</v>
@@ -3157,29 +3235,29 @@
         <v>42203</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" ht="28">
+    <row r="94" spans="1:5" ht="42">
       <c r="A94" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B94" s="3">
         <v>42203</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>269</v>
       </c>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5" ht="28">
+    <row r="95" spans="1:5" ht="42">
       <c r="A95" s="2" t="s">
         <v>270</v>
       </c>
@@ -3194,7 +3272,7 @@
       </c>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5" ht="28">
+    <row r="96" spans="1:5" ht="42">
       <c r="A96" s="2" t="s">
         <v>273</v>
       </c>
@@ -3239,7 +3317,7 @@
       </c>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:5" ht="28">
+    <row r="99" spans="1:5" ht="42">
       <c r="A99" s="2" t="s">
         <v>282</v>
       </c>
@@ -3254,7 +3332,7 @@
       </c>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:5" ht="28">
+    <row r="100" spans="1:5" ht="42">
       <c r="A100" s="2" t="s">
         <v>285</v>
       </c>
@@ -3284,7 +3362,7 @@
       </c>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" ht="28">
+    <row r="102" spans="1:5" ht="42">
       <c r="A102" s="2" t="s">
         <v>291</v>
       </c>
@@ -3292,239 +3370,239 @@
         <v>42203</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" ht="28">
+      <c r="A103" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" ht="42">
-      <c r="A103" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="B103" s="3">
         <v>42203</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" ht="28">
       <c r="A104" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B104" s="3">
         <v>42203</v>
       </c>
       <c r="C104" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" ht="28">
+      <c r="A105" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5" ht="42">
-      <c r="A105" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="B105" s="3">
         <v>42203</v>
       </c>
       <c r="C105" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" ht="28">
+      <c r="A106" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" ht="42">
-      <c r="A106" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="B106" s="3">
         <v>42203</v>
       </c>
       <c r="C106" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="28">
       <c r="A107" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B107" s="3">
         <v>42203</v>
       </c>
       <c r="C107" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" ht="28">
+      <c r="A108" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" ht="42">
-      <c r="A108" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="B108" s="3">
         <v>42203</v>
       </c>
       <c r="C108" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" ht="28">
       <c r="A109" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B109" s="3">
         <v>42203</v>
       </c>
       <c r="C109" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" ht="28">
+      <c r="A110" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" ht="42">
-      <c r="A110" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="B110" s="3">
         <v>42203</v>
       </c>
       <c r="C110" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" ht="28">
+      <c r="A111" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" ht="42">
-      <c r="A111" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="B111" s="3">
         <v>42203</v>
       </c>
       <c r="C111" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" ht="42">
       <c r="A112" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B112" s="3">
         <v>42203</v>
       </c>
       <c r="C112" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5" ht="28">
       <c r="A113" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B113" s="3">
         <v>42203</v>
       </c>
       <c r="C113" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" ht="42">
       <c r="A114" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B114" s="3">
         <v>42203</v>
       </c>
       <c r="C114" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" ht="42">
       <c r="A115" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B115" s="3">
         <v>42203</v>
       </c>
       <c r="C115" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" ht="28">
+      <c r="A116" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5" ht="42">
-      <c r="A116" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="B116" s="3">
         <v>42203</v>
       </c>
       <c r="C116" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5" ht="42">
       <c r="A117" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B117" s="3">
         <v>42203</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>337</v>
       </c>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="1:5" ht="42">
+    <row r="118" spans="1:5" ht="28">
       <c r="A118" s="2" t="s">
         <v>338</v>
       </c>
@@ -3584,7 +3662,7 @@
       </c>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="1:5" ht="42">
+    <row r="122" spans="1:5" ht="28">
       <c r="A122" s="2" t="s">
         <v>350</v>
       </c>
@@ -3599,7 +3677,7 @@
       </c>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="1:5" ht="28">
+    <row r="123" spans="1:5" ht="42">
       <c r="A123" s="2" t="s">
         <v>353</v>
       </c>
@@ -3614,7 +3692,7 @@
       </c>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="1:5" ht="28">
+    <row r="124" spans="1:5" ht="42">
       <c r="A124" s="2" t="s">
         <v>356</v>
       </c>
@@ -3629,7 +3707,7 @@
       </c>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="1:5" ht="28">
+    <row r="125" spans="1:5" ht="42">
       <c r="A125" s="2" t="s">
         <v>359</v>
       </c>
@@ -3652,37 +3730,37 @@
         <v>42203</v>
       </c>
       <c r="C126" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5" ht="42">
       <c r="A127" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B127" s="3">
         <v>42203</v>
       </c>
       <c r="C127" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="E127" s="4"/>
     </row>
     <row r="128" spans="1:5" ht="42">
       <c r="A128" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B128" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="B128" s="3">
-        <v>42195</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>369</v>
@@ -3694,240 +3772,375 @@
         <v>370</v>
       </c>
       <c r="B129" s="3">
-        <v>42195</v>
+        <v>42203</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>22</v>
+        <v>371</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E129" s="4"/>
     </row>
     <row r="130" spans="1:5" ht="42">
       <c r="A130" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B130" s="3">
-        <v>42195</v>
+        <v>42203</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="1:5" ht="28">
+    <row r="131" spans="1:5" ht="42">
       <c r="A131" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B131" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5" ht="28">
       <c r="A132" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B132" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="1:5" ht="42">
+    <row r="133" spans="1:5" ht="28">
       <c r="A133" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B133" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="1:5" ht="42">
+    <row r="134" spans="1:5" ht="28">
       <c r="A134" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B134" s="3">
-        <v>42171</v>
+        <v>42203</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5" ht="42">
       <c r="A135" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B135" s="3">
-        <v>42169</v>
+        <v>42203</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" ht="42">
       <c r="A136" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B136" s="3">
-        <v>42169</v>
+        <v>42203</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="1:5" ht="28">
+    <row r="137" spans="1:5" ht="42">
       <c r="A137" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B137" s="3">
-        <v>42169</v>
+        <v>42195</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>393</v>
+        <v>34</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" ht="42">
       <c r="A138" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B138" s="3">
-        <v>42168</v>
+        <v>42195</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="1:5" ht="28">
+    <row r="139" spans="1:5" ht="42">
       <c r="A139" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B139" s="3">
-        <v>42168</v>
+        <v>42195</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="1:5" ht="42">
+    <row r="140" spans="1:5" ht="28">
       <c r="A140" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B140" s="3">
-        <v>42168</v>
+        <v>42176</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="1:5" ht="42">
+    <row r="141" spans="1:5" ht="28">
       <c r="A141" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B141" s="3">
-        <v>42047</v>
+        <v>42176</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E141" s="4"/>
     </row>
     <row r="142" spans="1:5" ht="42">
       <c r="A142" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B142" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" ht="42">
+      <c r="A143" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B143" s="3">
+        <v>42171</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" ht="42">
+      <c r="A144" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B144" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" ht="42">
+      <c r="A145" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B145" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" ht="28">
+      <c r="A146" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" ht="42">
+      <c r="A147" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B147" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" ht="28">
+      <c r="A148" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B148" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" ht="42">
+      <c r="A149" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B149" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" ht="42">
+      <c r="A150" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B150" s="3">
+        <v>42047</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" ht="42">
+      <c r="A151" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B151" s="3">
         <v>42037</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" spans="1:5" ht="28">
-      <c r="A143" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B143" s="3">
+      <c r="C151" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" ht="28">
+      <c r="A152" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B152" s="3">
         <v>42026</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" spans="1:5" ht="28">
-      <c r="A144" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B144" s="3">
+      <c r="C152" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" ht="28">
+      <c r="A153" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B153" s="3">
         <v>41938</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E144" s="4"/>
+      <c r="C153" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E153" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4075,6 +4288,15 @@
     <hyperlink ref="A142" r:id="rId139"/>
     <hyperlink ref="A143" r:id="rId140"/>
     <hyperlink ref="A144" r:id="rId141"/>
+    <hyperlink ref="A145" r:id="rId142"/>
+    <hyperlink ref="A146" r:id="rId143"/>
+    <hyperlink ref="A147" r:id="rId144"/>
+    <hyperlink ref="A148" r:id="rId145"/>
+    <hyperlink ref="A149" r:id="rId146"/>
+    <hyperlink ref="A150" r:id="rId147"/>
+    <hyperlink ref="A151" r:id="rId148"/>
+    <hyperlink ref="A152" r:id="rId149"/>
+    <hyperlink ref="A153" r:id="rId150"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/assets/?.xlsx
+++ b/assets/?.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="980" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="493">
   <si>
     <t>SHORTLISTED PROFILES</t>
   </si>
@@ -39,6 +39,192 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>M3810070</t>
+  </si>
+  <si>
+    <t>Suganya</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Devar/Thevar/Mukkulathor (Caste No Bar) | United States of America | BE | Human Resources Professional</t>
+  </si>
+  <si>
+    <t>M3882979</t>
+  </si>
+  <si>
+    <t>poornima</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Chettiar | United States of America | MBA | Manager</t>
+  </si>
+  <si>
+    <t>M3217568</t>
+  </si>
+  <si>
+    <t>Malathy Elumalai</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3758852</t>
+  </si>
+  <si>
+    <t>Supriya</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Naidu | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M2662973</t>
+  </si>
+  <si>
+    <t>Preethi Somasundaram</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Vellalar | United States of America | M.S.(Engg.) | Scientist / Researcher</t>
+  </si>
+  <si>
+    <t>M3791874</t>
+  </si>
+  <si>
+    <t>Sabarisha Subramaniyan</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vellalar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3941742</t>
+  </si>
+  <si>
+    <t>Sowmiya</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M2576054</t>
+  </si>
+  <si>
+    <t>Priti Marappan</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3928853</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Caste not specified | United States of America | Masters Degree in Engineering / Computers | Software Professional</t>
+  </si>
+  <si>
+    <t>M3935865</t>
+  </si>
+  <si>
+    <t>s Vaishnavi</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3941496</t>
+  </si>
+  <si>
+    <t>Gayathri</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Chettiar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3018564</t>
+  </si>
+  <si>
+    <t>Preethi</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Chettiar (Caste No Bar) | United States of America | M.S.(Engg.) | Scientist / Researcher</t>
+  </si>
+  <si>
+    <t>T2313593</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3337693</t>
+  </si>
+  <si>
+    <t>Sujitha</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | B.Tech. | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3651877</t>
+  </si>
+  <si>
+    <t>S.Priyadarshini</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Parkava Kulam (Caste No Bar) | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3369501</t>
+  </si>
+  <si>
+    <t>AAKS</t>
+  </si>
+  <si>
+    <t>29 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar (Caste No Bar) | United States of America | MD / MS (Medical) | Doctor</t>
+  </si>
+  <si>
+    <t>M3408192</t>
+  </si>
+  <si>
+    <t>shruti</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Intercaste | United States of America | M.S.(Engg.) | Scientist / Researcher</t>
+  </si>
+  <si>
+    <t>M3683578</t>
+  </si>
+  <si>
+    <t>Mohana priya</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3338675</t>
+  </si>
+  <si>
+    <t>Harini</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>T2957611</t>
+  </si>
+  <si>
+    <t>Mathumitha</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Reddy | India | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M2992067</t>
+  </si>
+  <si>
+    <t>Soundarya Parvathi</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
     <t>M3737308</t>
   </si>
   <si>
@@ -123,9 +309,6 @@
     <t>M3353874</t>
   </si>
   <si>
-    <t>Later</t>
-  </si>
-  <si>
     <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Vishwakarma | Sweden | M.S.(Engg.) | Software Professional</t>
   </si>
   <si>
@@ -279,132 +462,126 @@
     <t>26 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
   </si>
   <si>
-    <t>M3954519</t>
+    <t>M3953076</t>
+  </si>
+  <si>
+    <t>Abhinaya Jayakumar</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3953824</t>
+  </si>
+  <si>
+    <t>sow.akshaya</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Brahmin - Iyengar, Gothra : Harithasa | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>T3181416</t>
+  </si>
+  <si>
+    <t>anu</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Yadav | United States of America | B.Tech. | Manager</t>
+  </si>
+  <si>
+    <t>M3386802</t>
+  </si>
+  <si>
+    <t>Divya.R</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | MBA | Designer</t>
+  </si>
+  <si>
+    <t>M3859464</t>
+  </si>
+  <si>
+    <t>Shwetha</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>T3179674</t>
+  </si>
+  <si>
+    <t>bhavani</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Naidu (Caste No Bar) | India | B.Tech. | Not working</t>
+  </si>
+  <si>
+    <t>M3107670</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3930988</t>
+  </si>
+  <si>
+    <t>Dhivya Lakshmi</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3380559</t>
+  </si>
+  <si>
+    <t>P AARTHI</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | B.Tech. | Not working</t>
+  </si>
+  <si>
+    <t>M1486367</t>
+  </si>
+  <si>
+    <t>ROOPA COMANDUR</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Brahmin - Iyengar, Gothra : Kaundinya | United States of America | Ph.D. | Not working</t>
+  </si>
+  <si>
+    <t>M3255525</t>
+  </si>
+  <si>
+    <t>Anitha Balasubramanian</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>T1813340</t>
+  </si>
+  <si>
+    <t>Ajitha Mahalakshmi</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Balija (Caste No Bar) | India | M.S.(Engg.) | Architect</t>
+  </si>
+  <si>
+    <t>M3870741</t>
+  </si>
+  <si>
+    <t>Madhumitha</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Pillai (Caste No Bar) | France | B.Tech. | Not working</t>
+  </si>
+  <si>
+    <t>M3682647</t>
   </si>
   <si>
     <t>Abinaya</t>
   </si>
   <si>
-    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>M3953076</t>
-  </si>
-  <si>
-    <t>Abhinaya Jayakumar</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>M3953824</t>
-  </si>
-  <si>
-    <t>sow.akshaya</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Brahmin - Iyengar, Gothra : Harithasa | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>T3181416</t>
-  </si>
-  <si>
-    <t>anu</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Yadav | United States of America | B.Tech. | Manager</t>
-  </si>
-  <si>
-    <t>M3386802</t>
-  </si>
-  <si>
-    <t>Divya.R</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | MBA | Designer</t>
-  </si>
-  <si>
-    <t>M3859464</t>
-  </si>
-  <si>
-    <t>Shwetha</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>T3179674</t>
-  </si>
-  <si>
-    <t>bhavani</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Naidu (Caste No Bar) | India | B.Tech. | Not working</t>
-  </si>
-  <si>
-    <t>M3107670</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>M3930988</t>
-  </si>
-  <si>
-    <t>Dhivya Lakshmi</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
-  </si>
-  <si>
-    <t>M3380559</t>
-  </si>
-  <si>
-    <t>P AARTHI</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | B.Tech. | Not working</t>
-  </si>
-  <si>
-    <t>M1486367</t>
-  </si>
-  <si>
-    <t>ROOPA COMANDUR</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Brahmin - Iyengar, Gothra : Kaundinya | United States of America | Ph.D. | Not working</t>
-  </si>
-  <si>
-    <t>M3255525</t>
-  </si>
-  <si>
-    <t>Anitha Balasubramanian</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>T1813340</t>
-  </si>
-  <si>
-    <t>Ajitha Mahalakshmi</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Balija (Caste No Bar) | India | M.S.(Engg.) | Architect</t>
-  </si>
-  <si>
-    <t>M3870741</t>
-  </si>
-  <si>
-    <t>Madhumitha</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Pillai (Caste No Bar) | France | B.Tech. | Not working</t>
-  </si>
-  <si>
-    <t>M3682647</t>
-  </si>
-  <si>
     <t>24 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | B.Tech. | Software Professional</t>
   </si>
   <si>
@@ -498,15 +675,6 @@
     <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | B.Tech. | Software Professional</t>
   </si>
   <si>
-    <t>M3577821</t>
-  </si>
-  <si>
-    <t>Preetha</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | B.Tech. | Software Professional</t>
-  </si>
-  <si>
     <t>M3895360</t>
   </si>
   <si>
@@ -975,9 +1143,6 @@
     <t>M3624025</t>
   </si>
   <si>
-    <t>Preethi</t>
-  </si>
-  <si>
     <t>24 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | India | BE | Software Professional</t>
   </si>
   <si>
@@ -1036,9 +1201,6 @@
   </si>
   <si>
     <t>M3781845</t>
-  </si>
-  <si>
-    <t>Gayathri</t>
   </si>
   <si>
     <t>26 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Reddy | United States of America | M.S.(Engg.) | Business Analyst</t>
@@ -1844,7 +2006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E2"/>
@@ -1897,7 +2059,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>42223</v>
+        <v>42225</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1912,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>42222</v>
+        <v>42225</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -1922,12 +2084,12 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="28">
+    <row r="6" spans="1:5" ht="42">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>42222</v>
+        <v>42225</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -1942,7 +2104,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>42221</v>
+        <v>42225</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>16</v>
@@ -1952,12 +2114,12 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="42">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3">
-        <v>42220</v>
+        <v>42225</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -1967,12 +2129,12 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="42">
+    <row r="9" spans="1:5" ht="28">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>42220</v>
+        <v>42225</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -1982,12 +2144,12 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="28">
+    <row r="10" spans="1:5" ht="42">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>42220</v>
+        <v>42225</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -2002,7 +2164,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="3">
-        <v>42220</v>
+        <v>42224</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>28</v>
@@ -2017,7 +2179,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="3">
-        <v>42220</v>
+        <v>42224</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
@@ -2032,7 +2194,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="3">
-        <v>42220</v>
+        <v>42224</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>34</v>
@@ -2047,7 +2209,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="3">
-        <v>42218</v>
+        <v>42224</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>37</v>
@@ -2062,7 +2224,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="3">
-        <v>42218</v>
+        <v>42224</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>40</v>
@@ -2077,55 +2239,55 @@
         <v>42</v>
       </c>
       <c r="B16" s="3">
-        <v>42218</v>
+        <v>42224</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="42">
       <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3">
+        <v>42224</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="42">
       <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42224</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="42">
       <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42223</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B19" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>52</v>
@@ -2137,7 +2299,7 @@
         <v>53</v>
       </c>
       <c r="B20" s="3">
-        <v>42218</v>
+        <v>42223</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>54</v>
@@ -2152,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="3">
-        <v>42218</v>
+        <v>42223</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>57</v>
@@ -2167,7 +2329,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="3">
-        <v>42218</v>
+        <v>42223</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>60</v>
@@ -2177,12 +2339,12 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="42">
+    <row r="23" spans="1:5" ht="28">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="3">
-        <v>42218</v>
+        <v>42223</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>63</v>
@@ -2192,12 +2354,12 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="42">
+    <row r="24" spans="1:5" ht="28">
       <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="3">
-        <v>42218</v>
+        <v>42223</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>66</v>
@@ -2212,7 +2374,7 @@
         <v>68</v>
       </c>
       <c r="B25" s="3">
-        <v>42218</v>
+        <v>42223</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>69</v>
@@ -2222,12 +2384,12 @@
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="42">
+    <row r="26" spans="1:5" ht="28">
       <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="3">
-        <v>42218</v>
+        <v>42222</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>72</v>
@@ -2237,12 +2399,12 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="42">
+    <row r="27" spans="1:5" ht="28">
       <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="3">
-        <v>42218</v>
+        <v>42222</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>75</v>
@@ -2252,12 +2414,12 @@
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="42">
+    <row r="28" spans="1:5" ht="28">
       <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B28" s="3">
-        <v>42218</v>
+        <v>42221</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>78</v>
@@ -2272,7 +2434,7 @@
         <v>80</v>
       </c>
       <c r="B29" s="3">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>81</v>
@@ -2282,12 +2444,12 @@
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="28">
+    <row r="30" spans="1:5" ht="42">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B30" s="3">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>84</v>
@@ -2297,12 +2459,12 @@
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="42">
+    <row r="31" spans="1:5" ht="28">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B31" s="3">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>87</v>
@@ -2317,7 +2479,7 @@
         <v>89</v>
       </c>
       <c r="B32" s="3">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>90</v>
@@ -2332,7 +2494,7 @@
         <v>92</v>
       </c>
       <c r="B33" s="3">
-        <v>42218</v>
+        <v>42220</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>93</v>
@@ -2347,70 +2509,70 @@
         <v>95</v>
       </c>
       <c r="B34" s="3">
-        <v>42215</v>
+        <v>42220</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="42">
+      <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="28">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="3">
-        <v>42215</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="42">
+      <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="28">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="3">
-        <v>42215</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="42">
+      <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="28">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="3">
-        <v>42215</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="42">
       <c r="A38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B38" s="3">
-        <v>42213</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>108</v>
@@ -2422,7 +2584,7 @@
         <v>109</v>
       </c>
       <c r="B39" s="3">
-        <v>42213</v>
+        <v>42218</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>110</v>
@@ -2437,85 +2599,85 @@
         <v>112</v>
       </c>
       <c r="B40" s="3">
-        <v>42213</v>
+        <v>42218</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="42">
       <c r="A41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="3">
-        <v>42212</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="42">
+      <c r="A42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" ht="28">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="3">
-        <v>42212</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="42">
+      <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" ht="28">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="3">
-        <v>42211</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="42">
+      <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="28">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="3">
-        <v>42210</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="42">
       <c r="A45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B45" s="3">
-        <v>42207</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>128</v>
@@ -2527,7 +2689,7 @@
         <v>129</v>
       </c>
       <c r="B46" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>130</v>
@@ -2537,342 +2699,342 @@
       </c>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="28">
+    <row r="47" spans="1:5" ht="42">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B47" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="42">
       <c r="A48" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B48" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="28">
+    <row r="49" spans="1:5" ht="42">
       <c r="A49" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B49" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="42">
+    <row r="50" spans="1:5" ht="28">
       <c r="A50" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B50" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="42">
+    <row r="51" spans="1:5" ht="28">
       <c r="A51" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B51" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="42">
       <c r="A52" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B52" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="42">
       <c r="A53" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B53" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="42">
+    <row r="54" spans="1:5" ht="28">
       <c r="A54" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B54" s="3">
-        <v>42207</v>
+        <v>42215</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="42">
+    <row r="55" spans="1:5" ht="28">
       <c r="A55" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B55" s="3">
-        <v>42207</v>
+        <v>42215</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="28">
       <c r="A56" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B56" s="3">
-        <v>42207</v>
+        <v>42215</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="42">
+    <row r="57" spans="1:5" ht="28">
       <c r="A57" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B57" s="3">
-        <v>42207</v>
+        <v>42215</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="42">
       <c r="A58" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B58" s="3">
-        <v>42207</v>
+        <v>42213</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="42">
       <c r="A59" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B59" s="3">
-        <v>42207</v>
+        <v>42213</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="42">
       <c r="A60" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B60" s="3">
-        <v>42207</v>
+        <v>42213</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" ht="28">
+    <row r="61" spans="1:5" ht="42">
       <c r="A61" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B61" s="3">
-        <v>42207</v>
+        <v>42212</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" ht="42">
+    <row r="62" spans="1:5" ht="28">
       <c r="A62" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B62" s="3">
-        <v>42206</v>
+        <v>42212</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" ht="42">
+    <row r="63" spans="1:5" ht="28">
       <c r="A63" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B63" s="3">
-        <v>42206</v>
+        <v>42211</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="28">
       <c r="A64" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B64" s="3">
-        <v>42206</v>
+        <v>42210</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" ht="28">
+    <row r="65" spans="1:5" ht="42">
       <c r="A65" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B65" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="42">
       <c r="A66" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B66" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="28">
       <c r="A67" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B67" s="3">
-        <v>42206</v>
+        <v>42207</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" ht="28">
+    <row r="68" spans="1:5" ht="42">
       <c r="A68" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B68" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" ht="42">
+    <row r="69" spans="1:5" ht="28">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B69" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>196</v>
@@ -2887,7 +3049,7 @@
         <v>198</v>
       </c>
       <c r="B70" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>199</v>
@@ -2902,7 +3064,7 @@
         <v>201</v>
       </c>
       <c r="B71" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>202</v>
@@ -2912,12 +3074,12 @@
       </c>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:5" ht="28">
+    <row r="72" spans="1:5" ht="42">
       <c r="A72" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B72" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>205</v>
@@ -2927,72 +3089,72 @@
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" ht="28">
+    <row r="73" spans="1:5" ht="42">
       <c r="A73" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B73" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="42">
       <c r="A74" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B74" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="42">
       <c r="A75" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B75" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="28">
       <c r="A76" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B76" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>217</v>
       </c>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:5" ht="28">
+    <row r="77" spans="1:5" ht="42">
       <c r="A77" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B77" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>219</v>
@@ -3002,225 +3164,225 @@
       </c>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:5" ht="28">
+    <row r="78" spans="1:5" ht="42">
       <c r="A78" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B78" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="42">
       <c r="A79" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B79" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="28">
       <c r="A80" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B80" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="42">
       <c r="A81" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B81" s="3">
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="42">
       <c r="A82" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B82" s="3">
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="28">
       <c r="A83" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B83" s="3">
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="28">
       <c r="A84" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B84" s="3">
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="42">
       <c r="A85" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B85" s="3">
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" ht="42">
+    <row r="86" spans="1:5" ht="28">
       <c r="A86" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B86" s="3">
-        <v>42205</v>
+        <v>42206</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" ht="42">
+    <row r="87" spans="1:5" ht="28">
       <c r="A87" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B87" s="3">
         <v>42205</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="42">
       <c r="A88" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B88" s="3">
         <v>42205</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="42">
       <c r="A89" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B89" s="3">
         <v>42205</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="42">
       <c r="A90" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B90" s="3">
-        <v>42204</v>
+        <v>42205</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" ht="28">
       <c r="A91" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B91" s="3">
-        <v>42204</v>
+        <v>42205</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5" ht="42">
+    <row r="92" spans="1:5" ht="28">
       <c r="A92" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B92" s="3">
-        <v>42204</v>
+        <v>42205</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>264</v>
@@ -3232,7 +3394,7 @@
         <v>265</v>
       </c>
       <c r="B93" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>266</v>
@@ -3247,67 +3409,67 @@
         <v>268</v>
       </c>
       <c r="B94" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5" ht="42">
+    <row r="95" spans="1:5" ht="28">
       <c r="A95" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B95" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5" ht="42">
+    <row r="96" spans="1:5" ht="28">
       <c r="A96" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B96" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="28">
       <c r="A97" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B97" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>278</v>
       </c>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" ht="28">
+    <row r="98" spans="1:5" ht="42">
       <c r="A98" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B98" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>280</v>
@@ -3317,12 +3479,12 @@
       </c>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:5" ht="42">
+    <row r="99" spans="1:5" ht="28">
       <c r="A99" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B99" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>283</v>
@@ -3337,7 +3499,7 @@
         <v>285</v>
       </c>
       <c r="B100" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>286</v>
@@ -3352,7 +3514,7 @@
         <v>288</v>
       </c>
       <c r="B101" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>289</v>
@@ -3362,180 +3524,180 @@
       </c>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" ht="42">
+    <row r="102" spans="1:5" ht="28">
       <c r="A102" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B102" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="28">
       <c r="A103" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B103" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" ht="28">
+    <row r="104" spans="1:5" ht="42">
       <c r="A104" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B104" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" ht="28">
+    <row r="105" spans="1:5" ht="42">
       <c r="A105" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B105" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" ht="28">
+    <row r="106" spans="1:5" ht="42">
       <c r="A106" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B106" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:5" ht="28">
+    <row r="107" spans="1:5" ht="42">
       <c r="A107" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B107" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="1:5" ht="28">
+    <row r="108" spans="1:5" ht="42">
       <c r="A108" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B108" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" ht="28">
+    <row r="109" spans="1:5" ht="42">
       <c r="A109" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B109" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" ht="28">
       <c r="A110" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B110" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" ht="28">
+    <row r="111" spans="1:5" ht="42">
       <c r="A111" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B111" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" ht="42">
       <c r="A112" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B112" s="3">
         <v>42203</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="1:5" ht="28">
+    <row r="113" spans="1:5" ht="42">
       <c r="A113" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B113" s="3">
         <v>42203</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>325</v>
@@ -3587,7 +3749,7 @@
       </c>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="1:5" ht="42">
+    <row r="117" spans="1:5" ht="28">
       <c r="A117" s="2" t="s">
         <v>335</v>
       </c>
@@ -3602,7 +3764,7 @@
       </c>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="1:5" ht="28">
+    <row r="118" spans="1:5" ht="42">
       <c r="A118" s="2" t="s">
         <v>338</v>
       </c>
@@ -3655,89 +3817,89 @@
         <v>42203</v>
       </c>
       <c r="C121" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5" ht="28">
       <c r="A122" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B122" s="3">
         <v>42203</v>
       </c>
       <c r="C122" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" ht="28">
+      <c r="A123" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="1:5" ht="42">
-      <c r="A123" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="B123" s="3">
         <v>42203</v>
       </c>
       <c r="C123" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" ht="28">
+      <c r="A124" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5" ht="42">
-      <c r="A124" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="B124" s="3">
         <v>42203</v>
       </c>
       <c r="C124" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" ht="28">
+      <c r="A125" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:5" ht="42">
-      <c r="A125" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="B125" s="3">
         <v>42203</v>
       </c>
       <c r="C125" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" ht="28">
+      <c r="A126" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="1:5" ht="42">
-      <c r="A126" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="B126" s="3">
         <v>42203</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>34</v>
+        <v>362</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>363</v>
       </c>
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="1:5" ht="42">
+    <row r="127" spans="1:5" ht="28">
       <c r="A127" s="2" t="s">
         <v>364</v>
       </c>
@@ -3752,7 +3914,7 @@
       </c>
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="1:5" ht="42">
+    <row r="128" spans="1:5" ht="28">
       <c r="A128" s="2" t="s">
         <v>367</v>
       </c>
@@ -3767,7 +3929,7 @@
       </c>
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="1:5" ht="42">
+    <row r="129" spans="1:5" ht="28">
       <c r="A129" s="2" t="s">
         <v>370</v>
       </c>
@@ -3782,7 +3944,7 @@
       </c>
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="1:5" ht="42">
+    <row r="130" spans="1:5" ht="28">
       <c r="A130" s="2" t="s">
         <v>373</v>
       </c>
@@ -3790,127 +3952,127 @@
         <v>42203</v>
       </c>
       <c r="C130" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5" ht="42">
       <c r="A131" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B131" s="3">
         <v>42203</v>
       </c>
       <c r="C131" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5" ht="28">
       <c r="A132" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B132" s="3">
         <v>42203</v>
       </c>
       <c r="C132" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" ht="42">
+      <c r="A133" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="1:5" ht="28">
-      <c r="A133" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="B133" s="3">
         <v>42203</v>
       </c>
       <c r="C133" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" ht="42">
+      <c r="A134" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="1:5" ht="28">
-      <c r="A134" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="B134" s="3">
         <v>42203</v>
       </c>
       <c r="C134" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" ht="28">
+      <c r="A135" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="1:5" ht="42">
-      <c r="A135" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="B135" s="3">
         <v>42203</v>
       </c>
       <c r="C135" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" ht="42">
       <c r="A136" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B136" s="3">
         <v>42203</v>
       </c>
       <c r="C136" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" ht="28">
+      <c r="A137" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="1:5" ht="42">
-      <c r="A137" s="2" t="s">
+      <c r="B137" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="B137" s="3">
-        <v>42195</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>395</v>
       </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" ht="42">
       <c r="A138" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B138" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="B138" s="3">
-        <v>42195</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>397</v>
@@ -3922,7 +4084,7 @@
         <v>398</v>
       </c>
       <c r="B139" s="3">
-        <v>42195</v>
+        <v>42203</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>399</v>
@@ -3932,12 +4094,12 @@
       </c>
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="1:5" ht="28">
+    <row r="140" spans="1:5" ht="42">
       <c r="A140" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B140" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>402</v>
@@ -3952,7 +4114,7 @@
         <v>404</v>
       </c>
       <c r="B141" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>405</v>
@@ -3967,7 +4129,7 @@
         <v>407</v>
       </c>
       <c r="B142" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>408</v>
@@ -3982,7 +4144,7 @@
         <v>410</v>
       </c>
       <c r="B143" s="3">
-        <v>42171</v>
+        <v>42203</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>411</v>
@@ -3997,37 +4159,37 @@
         <v>413</v>
       </c>
       <c r="B144" s="3">
-        <v>42169</v>
+        <v>42203</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E144" s="4"/>
     </row>
     <row r="145" spans="1:5" ht="42">
       <c r="A145" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B145" s="3">
-        <v>42169</v>
+        <v>42203</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>417</v>
       </c>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="1:5" ht="28">
+    <row r="146" spans="1:5" ht="42">
       <c r="A146" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B146" s="3">
-        <v>42169</v>
+        <v>42203</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>419</v>
@@ -4042,105 +4204,390 @@
         <v>421</v>
       </c>
       <c r="B147" s="3">
-        <v>42168</v>
+        <v>42203</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>34</v>
+        <v>422</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="1:5" ht="28">
+    <row r="148" spans="1:5" ht="42">
       <c r="A148" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B148" s="3">
-        <v>42168</v>
+        <v>42203</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E148" s="4"/>
     </row>
     <row r="149" spans="1:5" ht="42">
       <c r="A149" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B149" s="3">
-        <v>42168</v>
+        <v>42203</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E149" s="4"/>
     </row>
     <row r="150" spans="1:5" ht="42">
       <c r="A150" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B150" s="3">
-        <v>42047</v>
+        <v>42203</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="1:5" ht="42">
+    <row r="151" spans="1:5" ht="28">
       <c r="A151" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B151" s="3">
-        <v>42037</v>
+        <v>42203</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>34</v>
+        <v>434</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E151" s="4"/>
     </row>
     <row r="152" spans="1:5" ht="28">
       <c r="A152" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B152" s="3">
-        <v>42026</v>
+        <v>42203</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E152" s="4"/>
     </row>
     <row r="153" spans="1:5" ht="28">
       <c r="A153" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B153" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" ht="42">
+      <c r="A154" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B154" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" ht="42">
+      <c r="A155" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B155" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" ht="42">
+      <c r="A156" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B156" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" ht="42">
+      <c r="A157" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B157" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" ht="42">
+      <c r="A158" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B158" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" ht="28">
+      <c r="A159" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B159" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" ht="28">
+      <c r="A160" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B160" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" ht="42">
+      <c r="A161" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B161" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" ht="42">
+      <c r="A162" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B162" s="3">
+        <v>42171</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" ht="42">
+      <c r="A163" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B163" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" ht="42">
+      <c r="A164" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B164" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" ht="28">
+      <c r="A165" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B165" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" ht="42">
+      <c r="A166" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B166" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" ht="28">
+      <c r="A167" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B167" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" ht="42">
+      <c r="A168" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B168" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" ht="42">
+      <c r="A169" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B169" s="3">
+        <v>42047</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" ht="42">
+      <c r="A170" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B170" s="3">
+        <v>42037</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" ht="28">
+      <c r="A171" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B171" s="3">
+        <v>42026</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" ht="28">
+      <c r="A172" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B172" s="3">
         <v>41938</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E153" s="4"/>
+      <c r="C172" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E172" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4297,6 +4744,25 @@
     <hyperlink ref="A151" r:id="rId148"/>
     <hyperlink ref="A152" r:id="rId149"/>
     <hyperlink ref="A153" r:id="rId150"/>
+    <hyperlink ref="A154" r:id="rId151"/>
+    <hyperlink ref="A155" r:id="rId152"/>
+    <hyperlink ref="A156" r:id="rId153"/>
+    <hyperlink ref="A157" r:id="rId154"/>
+    <hyperlink ref="A158" r:id="rId155"/>
+    <hyperlink ref="A159" r:id="rId156"/>
+    <hyperlink ref="A160" r:id="rId157"/>
+    <hyperlink ref="A161" r:id="rId158"/>
+    <hyperlink ref="A162" r:id="rId159"/>
+    <hyperlink ref="A163" r:id="rId160"/>
+    <hyperlink ref="A164" r:id="rId161"/>
+    <hyperlink ref="A165" r:id="rId162"/>
+    <hyperlink ref="A166" r:id="rId163"/>
+    <hyperlink ref="A167" r:id="rId164"/>
+    <hyperlink ref="A168" r:id="rId165"/>
+    <hyperlink ref="A169" r:id="rId166"/>
+    <hyperlink ref="A170" r:id="rId167"/>
+    <hyperlink ref="A171" r:id="rId168"/>
+    <hyperlink ref="A172" r:id="rId169"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/assets/?.xlsx
+++ b/assets/?.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="594">
   <si>
     <t>SHORTLISTED PROFILES</t>
   </si>
@@ -39,6 +39,372 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>M3983437</t>
+  </si>
+  <si>
+    <t>Sindhu A.V</t>
+  </si>
+  <si>
+    <t>22 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3983855</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3980570</t>
+  </si>
+  <si>
+    <t>Tamarai</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Gounder | United States of America | BE | Consultant</t>
+  </si>
+  <si>
+    <t>M3651269</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | MD / MS (Medical) | Doctor</t>
+  </si>
+  <si>
+    <t>M2472544</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai | United States of America | BE | Not working</t>
+  </si>
+  <si>
+    <t>M3410183</t>
+  </si>
+  <si>
+    <t>Lavanya</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Brahmin - Iyengar, Gothra : Shadamarshana | United States of America | MBA | Software Professional</t>
+  </si>
+  <si>
+    <t>M3981024</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Naidu (Caste No Bar) | United States of America | MD / MS (Medical) | Doctor</t>
+  </si>
+  <si>
+    <t>M3980207</t>
+  </si>
+  <si>
+    <t>anu priya</t>
+  </si>
+  <si>
+    <t>22 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vellalar (Caste No Bar) | India | BE | Not working</t>
+  </si>
+  <si>
+    <t>T2667010</t>
+  </si>
+  <si>
+    <t>Vidhya sri</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Naidu | India | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3964106</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Chettiar (Caste No Bar) | United States of America | MHRM (Human Resource Management) | Human Resources Professional</t>
+  </si>
+  <si>
+    <t>M3972858</t>
+  </si>
+  <si>
+    <t>Uthara.KV</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3978960</t>
+  </si>
+  <si>
+    <t>Niranjani</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Vellalar (Caste No Bar) | United States of America | MD / MS (Medical) | Not working</t>
+  </si>
+  <si>
+    <t>M3961443</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Naidu (Caste No Bar) | United States of America | BE | Architect</t>
+  </si>
+  <si>
+    <t>M3955600</t>
+  </si>
+  <si>
+    <t>Veena K</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | Master Degree in Medicine | Health Care Professional</t>
+  </si>
+  <si>
+    <t>M3971357</t>
+  </si>
+  <si>
+    <t>Nritya</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3975968</t>
+  </si>
+  <si>
+    <t>Bhuvana sekar</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3977562</t>
+  </si>
+  <si>
+    <t>JANANI</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3886564</t>
+  </si>
+  <si>
+    <t>Priya CS</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3970750</t>
+  </si>
+  <si>
+    <t>Sangeetha</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Yadav | United States of America | MBBS | Not working</t>
+  </si>
+  <si>
+    <t>M3769485</t>
+  </si>
+  <si>
+    <t>Vandana</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Vellalar | United States of America | M.S.(Engg.) | Manager</t>
+  </si>
+  <si>
+    <t>M2758393</t>
+  </si>
+  <si>
+    <t>Abhinaya</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Pillai (Caste No Bar) | United States of America | M.S.(Engg.) | Scientist / Researcher</t>
+  </si>
+  <si>
+    <t>M1587890</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M3971823</t>
+  </si>
+  <si>
+    <t>pushpalatha</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Reddy | India | BDS | Doctor</t>
+  </si>
+  <si>
+    <t>M3437807</t>
+  </si>
+  <si>
+    <t>sneha</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Chettiar (Caste No Bar) | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M2968361</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Reddy | United States of America | MBBS | Doctor</t>
+  </si>
+  <si>
+    <t>M3653517</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Naidu (Caste No Bar) | United States of America | BE | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3964688</t>
+  </si>
+  <si>
+    <t>Maha Lashmi</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | MD / MS (Medical) | Doctor</t>
+  </si>
+  <si>
+    <t>M3971820</t>
+  </si>
+  <si>
+    <t>Shruti J Suresh</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3949246</t>
+  </si>
+  <si>
+    <t>AN.Archana</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Reddy | Singapore | BE | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3083812</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Reddy | India | MBA | Consultant</t>
+  </si>
+  <si>
+    <t>T2592658</t>
+  </si>
+  <si>
+    <t>Praveena.D</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Reddy | India | BE | Not working</t>
+  </si>
+  <si>
+    <t>M3194130</t>
+  </si>
+  <si>
+    <t>Soumya</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | M.S.(Engg.) | Scientist / Researcher</t>
+  </si>
+  <si>
+    <t>M3719692</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Intercaste (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3346231</t>
+  </si>
+  <si>
+    <t>ashvitha</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3960134</t>
+  </si>
+  <si>
+    <t>A Shanmugapriya</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Reddy | India | M.Arch. | Not working</t>
+  </si>
+  <si>
+    <t>M3725886</t>
+  </si>
+  <si>
+    <t>Sindhu</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Parkava Kulam (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3734266</t>
+  </si>
+  <si>
+    <t>Lavanya P</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar | India | MCA | Software Professional</t>
+  </si>
+  <si>
+    <t>T3192751</t>
+  </si>
+  <si>
+    <t>keerthi priya</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Reddy | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>T3152732</t>
+  </si>
+  <si>
+    <t>Praneetha Harindranath</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Reddy | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M3846846</t>
+  </si>
+  <si>
+    <t>Deepthi</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Brahmin - Iyengar, Gothra : Koushika Visvamitrasa | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>T3190923</t>
+  </si>
+  <si>
+    <t>Niveditha</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Yadav (Caste No Bar) | United States of America | M.Pharm | Not working</t>
+  </si>
+  <si>
+    <t>M3966500</t>
+  </si>
+  <si>
+    <t>AMUDHA ANNAMALAI</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
     <t>M3810070</t>
   </si>
   <si>
@@ -63,7 +429,7 @@
     <t>Malathy Elumalai</t>
   </si>
   <si>
-    <t>26 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+    <t>27 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
   </si>
   <si>
     <t>M3758852</t>
@@ -114,9 +480,6 @@
     <t>M3928853</t>
   </si>
   <si>
-    <t>Later</t>
-  </si>
-  <si>
     <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Caste not specified | United States of America | Masters Degree in Engineering / Computers | Software Professional</t>
   </si>
   <si>
@@ -171,15 +534,6 @@
     <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Parkava Kulam (Caste No Bar) | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
   </si>
   <si>
-    <t>M3369501</t>
-  </si>
-  <si>
-    <t>AAKS</t>
-  </si>
-  <si>
-    <t>29 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar (Caste No Bar) | United States of America | MD / MS (Medical) | Doctor</t>
-  </si>
-  <si>
     <t>M3408192</t>
   </si>
   <si>
@@ -249,7 +603,7 @@
     <t>Jeyasri</t>
   </si>
   <si>
-    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vellalar | United States of America | BE | Software Professional</t>
+    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vellalar | United States of America | BE | Software Professional</t>
   </si>
   <si>
     <t>M3448307</t>
@@ -258,7 +612,7 @@
     <t>Swathi.V</t>
   </si>
   <si>
-    <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Pillai | India | M.S.(Engg.) | Software Professional</t>
+    <t>27 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Pillai | India | M.S.(Engg.) | Software Professional</t>
   </si>
   <si>
     <t>M3909041</t>
@@ -387,7 +741,7 @@
     <t>S Priya</t>
   </si>
   <si>
-    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | M.S.(Engg.) | Software Professional</t>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | M.S.(Engg.) | Software Professional</t>
   </si>
   <si>
     <t>M3803638</t>
@@ -474,21 +828,12 @@
     <t>M3953824</t>
   </si>
   <si>
-    <t>sow.akshaya</t>
+    <t>Akshaya</t>
   </si>
   <si>
     <t>25 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Brahmin - Iyengar, Gothra : Harithasa | United States of America | M.S.(Engg.) | Software Professional</t>
   </si>
   <si>
-    <t>T3181416</t>
-  </si>
-  <si>
-    <t>anu</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Yadav | United States of America | B.Tech. | Manager</t>
-  </si>
-  <si>
     <t>M3386802</t>
   </si>
   <si>
@@ -513,7 +858,7 @@
     <t>bhavani</t>
   </si>
   <si>
-    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Naidu (Caste No Bar) | India | B.Tech. | Not working</t>
+    <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Naidu | India | B.Tech. | Not working</t>
   </si>
   <si>
     <t>M3107670</t>
@@ -585,276 +930,267 @@
     <t>24 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | B.Tech. | Software Professional</t>
   </si>
   <si>
-    <t>M3552984</t>
+    <t>M3470666</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Vellalar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3916814</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Pillai (Caste No Bar) | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M2888880</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3763267</t>
+  </si>
+  <si>
+    <t>Krithi</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | Bachelor Degree in Management | Business Analyst</t>
+  </si>
+  <si>
+    <t>M3379044</t>
+  </si>
+  <si>
+    <t>Nisha Rajakumar</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Devar/Thevar/Mukkulathor | United States of America | B.Tech. | Not working</t>
+  </si>
+  <si>
+    <t>M3808643</t>
+  </si>
+  <si>
+    <t>A Kokila</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M2964687</t>
+  </si>
+  <si>
+    <t>S.NIROOBHA</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3453002</t>
+  </si>
+  <si>
+    <t>Prathiba</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3483358</t>
+  </si>
+  <si>
+    <t>J.Kalaranjani</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3840588</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3577821</t>
+  </si>
+  <si>
+    <t>Preetha</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3895360</t>
+  </si>
+  <si>
+    <t>RAJAPUSHPAM</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3645165</t>
+  </si>
+  <si>
+    <t>K S Sharmila</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3544079</t>
+  </si>
+  <si>
+    <t>Balavarshini R</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | MBA | Banking Service Professional</t>
+  </si>
+  <si>
+    <t>M3168544</t>
+  </si>
+  <si>
+    <t>S.Priti</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Chettiar | United States of America | B.Tech. | Software Professional</t>
+  </si>
+  <si>
+    <t>M3217538</t>
+  </si>
+  <si>
+    <t>Jaishree</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
+  </si>
+  <si>
+    <t>M2812115</t>
+  </si>
+  <si>
+    <t>Ramya</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | MBA | Software Professional</t>
+  </si>
+  <si>
+    <t>M3248797</t>
+  </si>
+  <si>
+    <t>Thenmozhi</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Not working</t>
+  </si>
+  <si>
+    <t>M3166680</t>
+  </si>
+  <si>
+    <t>S.Priyadharshini</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
+  </si>
+  <si>
+    <t>M3114165</t>
+  </si>
+  <si>
+    <t>Kripa.D</t>
+  </si>
+  <si>
+    <t>25 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.Sc. IT / Computer Science | Not working</t>
+  </si>
+  <si>
+    <t>M3923064</t>
+  </si>
+  <si>
+    <t>Monisha</t>
+  </si>
+  <si>
+    <t>23 Yrs, 5 Ft 9 In / 176 Cms | Religion : Hindu, Caste : Chettiar | United States of America | M.S.(Engg.) | Not working</t>
+  </si>
+  <si>
+    <t>M2642126</t>
+  </si>
+  <si>
+    <t>Padmapriya Bose</t>
+  </si>
+  <si>
+    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nadar | India | BE | Not working</t>
+  </si>
+  <si>
+    <t>M3364889</t>
+  </si>
+  <si>
+    <t>Praveena Mani</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | MBA | Software Professional</t>
+  </si>
+  <si>
+    <t>M3852569</t>
+  </si>
+  <si>
+    <t>avici</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Yadav (Caste No Bar) | United States of America | M.S.(Engg.) | Marketing Professional</t>
+  </si>
+  <si>
+    <t>M3872177</t>
+  </si>
+  <si>
+    <t>aruna</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Parkava Kulam | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3635867</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>24 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3800294</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai | United States of America | BE | Not working</t>
+  </si>
+  <si>
+    <t>M3072765</t>
+  </si>
+  <si>
+    <t>Maya Selvan</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Vellalar (Caste No Bar) | United States of America | MBA | Not working</t>
+  </si>
+  <si>
+    <t>M2104832</t>
+  </si>
+  <si>
+    <t>Sumithra</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
+  </si>
+  <si>
+    <t>M3411231</t>
+  </si>
+  <si>
+    <t>Sumithra Arul</t>
+  </si>
+  <si>
+    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Consultant</t>
+  </si>
+  <si>
+    <t>M3522391</t>
   </si>
   <si>
     <t>Deepika</t>
   </si>
   <si>
-    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3470666</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Vellalar | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3916814</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Pillai (Caste No Bar) | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M2888880</t>
-  </si>
-  <si>
-    <t>later</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Engineer - Non IT</t>
-  </si>
-  <si>
-    <t>M3763267</t>
-  </si>
-  <si>
-    <t>Krithi</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | Bachelor Degree in Management | Business Analyst</t>
-  </si>
-  <si>
-    <t>M3379044</t>
-  </si>
-  <si>
-    <t>Nisha Rajakumar</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Devar/Thevar/Mukkulathor | United States of America | B.Tech. | Not working</t>
-  </si>
-  <si>
-    <t>M3808643</t>
-  </si>
-  <si>
-    <t>A Kokila</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M2964687</t>
-  </si>
-  <si>
-    <t>S.NIROOBHA</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | B.Tech. | Software Professional</t>
-  </si>
-  <si>
-    <t>M3453002</t>
-  </si>
-  <si>
-    <t>Prathiba</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3483358</t>
-  </si>
-  <si>
-    <t>J.Kalaranjani</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | B.Tech. | Software Professional</t>
-  </si>
-  <si>
-    <t>M3840588</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | B.Tech. | Software Professional</t>
-  </si>
-  <si>
-    <t>M3895360</t>
-  </si>
-  <si>
-    <t>RAJAPUSHPAM</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3645165</t>
-  </si>
-  <si>
-    <t>K S Sharmila</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | B.Tech. | Software Professional</t>
-  </si>
-  <si>
-    <t>M3544079</t>
-  </si>
-  <si>
-    <t>Balavarshini R</t>
-  </si>
-  <si>
-    <t>23 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | MBA | Banking Service Professional</t>
-  </si>
-  <si>
-    <t>M3168544</t>
-  </si>
-  <si>
-    <t>S.Priti</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Chettiar | United States of America | B.Tech. | Software Professional</t>
-  </si>
-  <si>
-    <t>M3217538</t>
-  </si>
-  <si>
-    <t>Jaishree</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>M2812115</t>
-  </si>
-  <si>
-    <t>Ramya</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Senguntha Mudaliyar | United States of America | MBA | Software Professional</t>
-  </si>
-  <si>
-    <t>M3248797</t>
-  </si>
-  <si>
-    <t>Thenmozhi</t>
-  </si>
-  <si>
-    <t>23 Yrs, 5 Ft 7 In / 171 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Not working</t>
-  </si>
-  <si>
-    <t>M3166680</t>
-  </si>
-  <si>
-    <t>S.Priyadharshini</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nadar | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
-  </si>
-  <si>
-    <t>M3114165</t>
-  </si>
-  <si>
-    <t>Kripa.D</t>
-  </si>
-  <si>
-    <t>25 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | M.Sc. IT / Computer Science | Not working</t>
-  </si>
-  <si>
-    <t>M3923064</t>
-  </si>
-  <si>
-    <t>Monisha</t>
-  </si>
-  <si>
-    <t>23 Yrs, 5 Ft 9 In / 176 Cms | Religion : Hindu, Caste : Chettiar | United States of America | M.S.(Engg.) | Not working</t>
-  </si>
-  <si>
-    <t>M2642126</t>
-  </si>
-  <si>
-    <t>Padmapriya Bose</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Nadar | India | BE | Not working</t>
-  </si>
-  <si>
-    <t>M3364889</t>
-  </si>
-  <si>
-    <t>Praveena Mani</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Vannia Kula Kshatriyar | United States of America | MBA | Software Professional</t>
-  </si>
-  <si>
-    <t>M3852569</t>
-  </si>
-  <si>
-    <t>avici</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Yadav (Caste No Bar) | United States of America | M.S.(Engg.) | Marketing Professional</t>
-  </si>
-  <si>
-    <t>M3872177</t>
-  </si>
-  <si>
-    <t>aruna</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Parkava Kulam | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3635867</t>
-  </si>
-  <si>
-    <t>Durga</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 1 In / 155 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3800294</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai | United States of America | BE | Not working</t>
-  </si>
-  <si>
-    <t>M3072765</t>
-  </si>
-  <si>
-    <t>Maya Selvan</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Vellalar (Caste No Bar) | United States of America | MBA | Not working</t>
-  </si>
-  <si>
-    <t>M2104832</t>
-  </si>
-  <si>
-    <t>Sumithra</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
-    <t>M3662651</t>
-  </si>
-  <si>
-    <t>Isfrieda Isakiya</t>
-  </si>
-  <si>
-    <t>24 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Not working</t>
-  </si>
-  <si>
-    <t>M3411231</t>
-  </si>
-  <si>
-    <t>Sumithra Arul</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Consultant</t>
-  </si>
-  <si>
-    <t>M3522391</t>
-  </si>
-  <si>
     <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Nadar | United States of America | BE | Software Professional</t>
   </si>
   <si>
@@ -867,15 +1203,6 @@
     <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | BE | Software Professional</t>
   </si>
   <si>
-    <t>M3658368</t>
-  </si>
-  <si>
-    <t>Kanchana Gunasekaran</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft / 153 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | BE | Software Professional</t>
-  </si>
-  <si>
     <t>M3211753</t>
   </si>
   <si>
@@ -969,10 +1296,10 @@
     <t>M3786675</t>
   </si>
   <si>
-    <t>Vasantha Vathana Balasubramanian</t>
-  </si>
-  <si>
-    <t>28 Yrs, 5 Ft 3 In / 161 Cms | Religion : Hindu, Caste : Pillai | United States of America | B.Tech. | Software Professional</t>
+    <t>Vathana</t>
+  </si>
+  <si>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Pillai | United States of America | B.Tech. | Software Professional</t>
   </si>
   <si>
     <t>M3234487</t>
@@ -1215,15 +1542,6 @@
     <t>25 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar (Caste No Bar) | United States of America | BE | Software Professional</t>
   </si>
   <si>
-    <t>M3816471</t>
-  </si>
-  <si>
-    <t>Dharanya</t>
-  </si>
-  <si>
-    <t>26 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Chettiar (Caste No Bar) | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
     <t>M3736710</t>
   </si>
   <si>
@@ -1272,6 +1590,9 @@
     <t>M3322409</t>
   </si>
   <si>
+    <t>Anu</t>
+  </si>
+  <si>
     <t>27 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Yadav (Caste No Bar) | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
   </si>
   <si>
@@ -1299,7 +1620,7 @@
     <t>Apurva</t>
   </si>
   <si>
-    <t>21 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | B.Tech. | Software Professional</t>
+    <t>22 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Mudaliyar | United States of America | B.Tech. | Software Professional</t>
   </si>
   <si>
     <t>T3025513</t>
@@ -1326,7 +1647,7 @@
     <t>On Request</t>
   </si>
   <si>
-    <t>27 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Naicker (Caste No Bar) | United States of America | MBA | Manager</t>
+    <t>28 Yrs, 5 Ft 2 In / 158 Cms | Religion : Hindu, Caste : Naicker (Caste No Bar) | United States of America | MBA | Manager</t>
   </si>
   <si>
     <t>M3597568</t>
@@ -1392,7 +1713,7 @@
     <t>Padma Prabha</t>
   </si>
   <si>
-    <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Reddy | United States of America | BE | Software Professional</t>
+    <t>27 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Reddy | United States of America | BE | Software Professional</t>
   </si>
   <si>
     <t>M3886494</t>
@@ -1428,15 +1749,6 @@
     <t>26 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Pillai (Caste No Bar) | United States of America | Master Degree in Legal | Lawyer &amp; Legal Professional</t>
   </si>
   <si>
-    <t>T3069623</t>
-  </si>
-  <si>
-    <t>Shalini</t>
-  </si>
-  <si>
-    <t>27 Yrs, 5 Ft 4 In / 163 Cms | Religion : Hindu, Caste : Naidu (Caste No Bar) | United States of America | M.S.(Engg.) | Engineer - Non IT</t>
-  </si>
-  <si>
     <t>M3221667</t>
   </si>
   <si>
@@ -1483,15 +1795,6 @@
   </si>
   <si>
     <t>26 Yrs, 5 Ft 6 In / 168 Cms | Religion : Hindu, Caste : Kongu Vellala Gounder | United States of America | M.S.(Engg.) | Software Professional</t>
-  </si>
-  <si>
-    <t>M3173055</t>
-  </si>
-  <si>
-    <t>N Subha Shree</t>
-  </si>
-  <si>
-    <t>23 Yrs, 5 Ft 5 In / 166 Cms | Religion : Hindu, Caste : Reddy | India | B.Tech. | Engineer - Non IT</t>
   </si>
   <si>
     <t>M3494839</t>
@@ -2006,17 +2309,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2059,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>42225</v>
+        <v>42244</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -2069,12 +2372,12 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>42225</v>
+        <v>42244</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -2084,12 +2387,12 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="42">
+    <row r="6" spans="1:5" ht="28">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>42225</v>
+        <v>42243</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -2099,12 +2402,12 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="28">
+    <row r="7" spans="1:5" ht="42">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>42225</v>
+        <v>42243</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>16</v>
@@ -2114,12 +2417,12 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="42">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3">
-        <v>42225</v>
+        <v>42243</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -2129,12 +2432,12 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="28">
+    <row r="9" spans="1:5" ht="42">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>42225</v>
+        <v>42243</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -2149,7 +2452,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>42225</v>
+        <v>42242</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -2159,12 +2462,12 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="42">
+    <row r="11" spans="1:5" ht="28">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3">
-        <v>42224</v>
+        <v>42242</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>28</v>
@@ -2174,12 +2477,12 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="42">
+    <row r="12" spans="1:5" ht="28">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="3">
-        <v>42224</v>
+        <v>42242</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
@@ -2189,60 +2492,60 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="28">
+    <row r="13" spans="1:5" ht="42">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="3">
-        <v>42224</v>
+        <v>42241</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="42">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42241</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3">
-        <v>42224</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="42">
       <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42239</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3">
-        <v>42224</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="28">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="42">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="3">
+        <v>42239</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="3">
-        <v>42224</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>43</v>
@@ -2254,7 +2557,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="3">
-        <v>42224</v>
+        <v>42239</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>45</v>
@@ -2264,12 +2567,12 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="42">
+    <row r="18" spans="1:5" ht="28">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="3">
-        <v>42224</v>
+        <v>42239</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>48</v>
@@ -2284,7 +2587,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="3">
-        <v>42223</v>
+        <v>42239</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>51</v>
@@ -2299,7 +2602,7 @@
         <v>53</v>
       </c>
       <c r="B20" s="3">
-        <v>42223</v>
+        <v>42239</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>54</v>
@@ -2314,7 +2617,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="3">
-        <v>42223</v>
+        <v>42239</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>57</v>
@@ -2324,12 +2627,12 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="42">
+    <row r="22" spans="1:5" ht="28">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="3">
-        <v>42223</v>
+        <v>42239</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>60</v>
@@ -2344,7 +2647,7 @@
         <v>62</v>
       </c>
       <c r="B23" s="3">
-        <v>42223</v>
+        <v>42235</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>63</v>
@@ -2354,12 +2657,12 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="28">
+    <row r="24" spans="1:5" ht="42">
       <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="3">
-        <v>42223</v>
+        <v>42235</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>66</v>
@@ -2369,12 +2672,12 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="42">
+    <row r="25" spans="1:5" ht="28">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="3">
-        <v>42223</v>
+        <v>42235</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>69</v>
@@ -2389,7 +2692,7 @@
         <v>71</v>
       </c>
       <c r="B26" s="3">
-        <v>42222</v>
+        <v>42234</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>72</v>
@@ -2399,12 +2702,12 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="28">
+    <row r="27" spans="1:5" ht="42">
       <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="3">
-        <v>42222</v>
+        <v>42233</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>75</v>
@@ -2419,610 +2722,610 @@
         <v>77</v>
       </c>
       <c r="B28" s="3">
-        <v>42221</v>
+        <v>42233</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="42">
+      <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="28">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="3">
+        <v>42233</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="3">
-        <v>42220</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="42">
       <c r="A30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3">
+        <v>42233</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="3">
-        <v>42220</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="42">
+      <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="28">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="3">
+        <v>42233</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="3">
-        <v>42220</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="28">
+      <c r="A32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="42">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="3">
+        <v>42233</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="3">
-        <v>42220</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="28">
+      <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" ht="42">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="3">
+        <v>42232</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B33" s="3">
-        <v>42220</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="28">
       <c r="A34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="3">
+        <v>42232</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B34" s="3">
-        <v>42220</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="42">
       <c r="A35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="3">
+        <v>42232</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="42">
       <c r="A36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="3">
+        <v>42232</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="B36" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="42">
       <c r="A37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="3">
+        <v>42232</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="28">
+      <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="B38" s="3">
+        <v>42232</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="42">
-      <c r="A38" s="2" t="s">
+      <c r="D38" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B38" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="42">
       <c r="A39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="3">
+        <v>42232</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="28">
+      <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="B40" s="3">
+        <v>42231</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="42">
-      <c r="A40" s="2" t="s">
+      <c r="D40" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="28">
+      <c r="A41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="42">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="3">
+        <v>42230</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="42">
       <c r="A42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="3">
+        <v>42229</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="42">
       <c r="A43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="3">
+        <v>42228</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="42">
       <c r="A44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="3">
+        <v>42228</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="42">
       <c r="A45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="3">
+        <v>42228</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="42">
       <c r="A46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="3">
+        <v>42225</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="28">
+      <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="42">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="3">
+        <v>42225</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="42">
       <c r="A48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="3">
+        <v>42225</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="28">
+      <c r="A49" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" ht="42">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="3">
+        <v>42225</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" ht="42">
+      <c r="A50" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" ht="28">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="3">
+        <v>42225</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="28">
       <c r="A51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="3">
+        <v>42225</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="42">
       <c r="A52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="3">
+        <v>42225</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="42">
       <c r="A53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="3">
+        <v>42224</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="3">
-        <v>42218</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" ht="42">
+      <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" ht="28">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="3">
+        <v>42224</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B54" s="3">
-        <v>42215</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="28">
       <c r="A55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="3">
+        <v>42224</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="3">
-        <v>42215</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" ht="42">
+      <c r="A56" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="B56" s="3">
+        <v>42224</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" ht="28">
-      <c r="A56" s="2" t="s">
+      <c r="D56" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="3">
-        <v>42215</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" ht="42">
+      <c r="A57" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="B57" s="3">
+        <v>42224</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" ht="28">
-      <c r="A57" s="2" t="s">
+      <c r="D57" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="B57" s="3">
-        <v>42215</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="42">
       <c r="A58" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B58" s="3">
-        <v>42213</v>
+        <v>42224</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="42">
       <c r="A59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="3">
+        <v>42224</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B59" s="3">
-        <v>42213</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="42">
       <c r="A60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="3">
+        <v>42224</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B60" s="3">
-        <v>42213</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="42">
       <c r="A61" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="3">
+        <v>42223</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="3">
-        <v>42212</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" ht="42">
+      <c r="A62" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="B62" s="3">
+        <v>42223</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" ht="28">
-      <c r="A62" s="2" t="s">
+      <c r="D62" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="3">
-        <v>42212</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" ht="42">
+      <c r="A63" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="B63" s="3">
+        <v>42223</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" ht="28">
-      <c r="A63" s="2" t="s">
+      <c r="D63" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="B63" s="3">
-        <v>42211</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="28">
       <c r="A64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="3">
+        <v>42223</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="3">
-        <v>42210</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" ht="28">
+      <c r="A65" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="B65" s="3">
+        <v>42223</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" ht="42">
-      <c r="A65" s="2" t="s">
+      <c r="D65" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="B65" s="3">
-        <v>42207</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="42">
       <c r="A66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="3">
+        <v>42223</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="B66" s="3">
-        <v>42207</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="28">
       <c r="A67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="3">
+        <v>42222</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B67" s="3">
-        <v>42207</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" ht="28">
+      <c r="A68" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" ht="42">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="3">
+        <v>42222</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B68" s="3">
-        <v>42207</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>194</v>
@@ -3034,7 +3337,7 @@
         <v>195</v>
       </c>
       <c r="B69" s="3">
-        <v>42207</v>
+        <v>42221</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>196</v>
@@ -3044,12 +3347,12 @@
       </c>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" ht="42">
+    <row r="70" spans="1:5" ht="28">
       <c r="A70" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B70" s="3">
-        <v>42207</v>
+        <v>42220</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>199</v>
@@ -3064,7 +3367,7 @@
         <v>201</v>
       </c>
       <c r="B71" s="3">
-        <v>42207</v>
+        <v>42220</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>202</v>
@@ -3074,12 +3377,12 @@
       </c>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:5" ht="42">
+    <row r="72" spans="1:5" ht="28">
       <c r="A72" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B72" s="3">
-        <v>42207</v>
+        <v>42220</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>205</v>
@@ -3094,7 +3397,7 @@
         <v>207</v>
       </c>
       <c r="B73" s="3">
-        <v>42207</v>
+        <v>42220</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>208</v>
@@ -3109,7 +3412,7 @@
         <v>210</v>
       </c>
       <c r="B74" s="3">
-        <v>42207</v>
+        <v>42220</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>211</v>
@@ -3119,30 +3422,30 @@
       </c>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" ht="42">
+    <row r="75" spans="1:5" ht="28">
       <c r="A75" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B75" s="3">
-        <v>42207</v>
+        <v>42220</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" ht="42">
+      <c r="A76" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" ht="28">
-      <c r="A76" s="2" t="s">
+      <c r="B76" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="B76" s="3">
-        <v>42207</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>217</v>
@@ -3154,7 +3457,7 @@
         <v>218</v>
       </c>
       <c r="B77" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>219</v>
@@ -3169,7 +3472,7 @@
         <v>221</v>
       </c>
       <c r="B78" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>222</v>
@@ -3184,7 +3487,7 @@
         <v>224</v>
       </c>
       <c r="B79" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>225</v>
@@ -3194,12 +3497,12 @@
       </c>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:5" ht="28">
+    <row r="80" spans="1:5" ht="42">
       <c r="A80" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B80" s="3">
-        <v>42207</v>
+        <v>42218</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>228</v>
@@ -3214,175 +3517,175 @@
         <v>230</v>
       </c>
       <c r="B81" s="3">
-        <v>42206</v>
+        <v>42218</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="42">
       <c r="A82" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B82" s="3">
-        <v>42206</v>
-      </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" ht="42">
+      <c r="A83" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" ht="28">
-      <c r="A83" s="2" t="s">
+      <c r="B83" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B83" s="3">
-        <v>42206</v>
-      </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" ht="42">
+      <c r="A84" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5" ht="28">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B84" s="3">
-        <v>42206</v>
-      </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="42">
       <c r="A85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B85" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B85" s="3">
-        <v>42206</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" ht="42">
+      <c r="A86" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" ht="28">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B86" s="3">
-        <v>42206</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" ht="42">
+      <c r="A87" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" ht="28">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B87" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="42">
       <c r="A88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B88" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B88" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="42">
       <c r="A89" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B89" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B89" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="42">
       <c r="A90" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B90" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B90" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" ht="28">
       <c r="A91" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B91" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B91" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="28">
       <c r="A92" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B92" s="3">
+        <v>42218</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B92" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>264</v>
@@ -3394,7 +3697,7 @@
         <v>265</v>
       </c>
       <c r="B93" s="3">
-        <v>42205</v>
+        <v>42218</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>266</v>
@@ -3409,7 +3712,7 @@
         <v>268</v>
       </c>
       <c r="B94" s="3">
-        <v>42205</v>
+        <v>42218</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>269</v>
@@ -3424,7 +3727,7 @@
         <v>271</v>
       </c>
       <c r="B95" s="3">
-        <v>42205</v>
+        <v>42215</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>272</v>
@@ -3439,7 +3742,7 @@
         <v>274</v>
       </c>
       <c r="B96" s="3">
-        <v>42205</v>
+        <v>42215</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>275</v>
@@ -3454,37 +3757,37 @@
         <v>277</v>
       </c>
       <c r="B97" s="3">
-        <v>42205</v>
+        <v>42215</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" ht="42">
       <c r="A98" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B98" s="3">
-        <v>42205</v>
+        <v>42213</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:5" ht="28">
+    <row r="99" spans="1:5" ht="42">
       <c r="A99" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B99" s="3">
-        <v>42205</v>
+        <v>42213</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>283</v>
@@ -3499,7 +3802,7 @@
         <v>285</v>
       </c>
       <c r="B100" s="3">
-        <v>42205</v>
+        <v>42213</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>286</v>
@@ -3514,7 +3817,7 @@
         <v>288</v>
       </c>
       <c r="B101" s="3">
-        <v>42205</v>
+        <v>42212</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>289</v>
@@ -3529,7 +3832,7 @@
         <v>291</v>
       </c>
       <c r="B102" s="3">
-        <v>42205</v>
+        <v>42212</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>292</v>
@@ -3544,7 +3847,7 @@
         <v>294</v>
       </c>
       <c r="B103" s="3">
-        <v>42205</v>
+        <v>42211</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>295</v>
@@ -3554,12 +3857,12 @@
       </c>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" ht="42">
+    <row r="104" spans="1:5" ht="28">
       <c r="A104" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B104" s="3">
-        <v>42205</v>
+        <v>42210</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>298</v>
@@ -3574,7 +3877,7 @@
         <v>300</v>
       </c>
       <c r="B105" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>301</v>
@@ -3584,600 +3887,600 @@
       </c>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" ht="42">
+    <row r="106" spans="1:5" ht="28">
       <c r="A106" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B106" s="3">
-        <v>42205</v>
+        <v>42207</v>
       </c>
       <c r="C106" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="42">
       <c r="A107" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B107" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B107" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C107" s="5" t="s">
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" ht="28">
+      <c r="A108" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="B108" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" ht="42">
-      <c r="A108" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B108" s="3">
-        <v>42205</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" ht="42">
       <c r="A109" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B109" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" ht="42">
+      <c r="A110" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B109" s="3">
-        <v>42204</v>
-      </c>
-      <c r="C109" s="5" t="s">
+      <c r="B110" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" ht="28">
-      <c r="A110" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B110" s="3">
-        <v>42204</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" ht="42">
       <c r="A111" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B111" s="3">
-        <v>42204</v>
+        <v>42207</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" ht="42">
       <c r="A112" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B112" s="3">
-        <v>42203</v>
+        <v>42207</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5" ht="42">
       <c r="A113" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B113" s="3">
-        <v>42203</v>
+        <v>42207</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" ht="42">
       <c r="A114" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B114" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B114" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C114" s="5" t="s">
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" ht="28">
+      <c r="A115" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="B115" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5" ht="42">
-      <c r="A115" s="2" t="s">
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" ht="42">
+      <c r="A116" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B115" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C115" s="5" t="s">
+      <c r="B116" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5" ht="28">
-      <c r="A116" s="2" t="s">
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" ht="42">
+      <c r="A117" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B116" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C116" s="5" t="s">
+      <c r="B117" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5" ht="28">
-      <c r="A117" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B117" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" ht="42">
       <c r="A118" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B118" s="3">
-        <v>42203</v>
+        <v>42207</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5" ht="42">
       <c r="A119" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B119" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" ht="28">
+      <c r="A120" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B119" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C119" s="5" t="s">
+      <c r="B120" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" ht="42">
-      <c r="A120" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B120" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" ht="42">
       <c r="A121" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B121" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" ht="42">
+      <c r="A122" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B121" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="B122" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:5" ht="28">
-      <c r="A122" s="2" t="s">
+      <c r="D122" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="B122" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="E122" s="4"/>
     </row>
     <row r="123" spans="1:5" ht="28">
       <c r="A123" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B123" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="B123" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5" ht="28">
       <c r="A124" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B124" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B124" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C124" s="5" t="s">
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" ht="42">
+      <c r="A125" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="B125" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:5" ht="28">
-      <c r="A125" s="2" t="s">
+      <c r="D125" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="B125" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" ht="28">
       <c r="A126" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B126" s="3">
+        <v>42206</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B126" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5" ht="28">
       <c r="A127" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B127" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B127" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C127" s="5" t="s">
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" ht="42">
+      <c r="A128" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="B128" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="1:5" ht="28">
-      <c r="A128" s="2" t="s">
+      <c r="D128" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B128" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C128" s="5" t="s">
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" ht="42">
+      <c r="A129" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="B129" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" spans="1:5" ht="28">
-      <c r="A129" s="2" t="s">
+      <c r="D129" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B129" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C129" s="5" t="s">
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" ht="42">
+      <c r="A130" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="B130" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="1:5" ht="28">
-      <c r="A130" s="2" t="s">
+      <c r="D130" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B130" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="5" t="s">
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" ht="28">
+      <c r="A131" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="1:5" ht="42">
-      <c r="A131" s="2" t="s">
+      <c r="B131" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B131" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C131" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5" ht="28">
       <c r="A132" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B132" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="B132" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>380</v>
       </c>
       <c r="E132" s="4"/>
     </row>
     <row r="133" spans="1:5" ht="42">
       <c r="A133" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B133" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="B133" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="E133" s="4"/>
     </row>
     <row r="134" spans="1:5" ht="42">
       <c r="A134" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B134" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="B134" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5" ht="28">
       <c r="A135" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B135" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B135" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C135" s="5" t="s">
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" ht="28">
+      <c r="A136" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="B136" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="1:5" ht="42">
-      <c r="A136" s="2" t="s">
+      <c r="D136" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B136" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C136" s="5" t="s">
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" ht="42">
+      <c r="A137" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="B137" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="1:5" ht="28">
-      <c r="A137" s="2" t="s">
+      <c r="D137" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="B137" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" ht="42">
       <c r="A138" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B138" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B138" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C138" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5" ht="42">
       <c r="A139" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B139" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B139" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C139" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" ht="28">
+      <c r="A140" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="1:5" ht="42">
-      <c r="A140" s="2" t="s">
+      <c r="B140" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B140" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C140" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="E140" s="4"/>
     </row>
     <row r="141" spans="1:5" ht="28">
       <c r="A141" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B141" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B141" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C141" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="E141" s="4"/>
     </row>
     <row r="142" spans="1:5" ht="42">
       <c r="A142" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B142" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B142" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C142" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5" ht="42">
       <c r="A143" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B143" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B143" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C143" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:5" ht="42">
       <c r="A144" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B144" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B144" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C144" s="5" t="s">
+      <c r="D144" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="E144" s="4"/>
     </row>
     <row r="145" spans="1:5" ht="42">
       <c r="A145" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B145" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="B145" s="3">
-        <v>42203</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>417</v>
@@ -4189,7 +4492,7 @@
         <v>418</v>
       </c>
       <c r="B146" s="3">
-        <v>42203</v>
+        <v>42205</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>419</v>
@@ -4204,7 +4507,7 @@
         <v>421</v>
       </c>
       <c r="B147" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>422</v>
@@ -4214,12 +4517,12 @@
       </c>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="1:5" ht="42">
+    <row r="148" spans="1:5" ht="28">
       <c r="A148" s="2" t="s">
         <v>424</v>
       </c>
       <c r="B148" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>425</v>
@@ -4234,7 +4537,7 @@
         <v>427</v>
       </c>
       <c r="B149" s="3">
-        <v>42203</v>
+        <v>42204</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>428</v>
@@ -4259,7 +4562,7 @@
       </c>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="1:5" ht="28">
+    <row r="151" spans="1:5" ht="42">
       <c r="A151" s="2" t="s">
         <v>433</v>
       </c>
@@ -4267,82 +4570,82 @@
         <v>42203</v>
       </c>
       <c r="C151" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" ht="42">
+      <c r="A152" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" spans="1:5" ht="28">
-      <c r="A152" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="B152" s="3">
         <v>42203</v>
       </c>
       <c r="C152" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" ht="42">
+      <c r="A153" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="E152" s="4"/>
-    </row>
-    <row r="153" spans="1:5" ht="28">
-      <c r="A153" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="B153" s="3">
         <v>42203</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D153" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" ht="28">
+      <c r="A154" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="E153" s="4"/>
-    </row>
-    <row r="154" spans="1:5" ht="42">
-      <c r="A154" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="B154" s="3">
         <v>42203</v>
       </c>
       <c r="C154" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" ht="28">
+      <c r="A155" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" spans="1:5" ht="42">
-      <c r="A155" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="B155" s="3">
         <v>42203</v>
       </c>
       <c r="C155" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>447</v>
       </c>
       <c r="E155" s="4"/>
     </row>
     <row r="156" spans="1:5" ht="42">
       <c r="A156" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B156" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="B156" s="3">
-        <v>42195</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>449</v>
@@ -4354,40 +4657,40 @@
         <v>450</v>
       </c>
       <c r="B157" s="3">
-        <v>42195</v>
+        <v>42203</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>31</v>
+        <v>451</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="1:5" ht="42">
       <c r="A158" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B158" s="3">
-        <v>42195</v>
+        <v>42203</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="1:5" ht="28">
+    <row r="159" spans="1:5" ht="42">
       <c r="A159" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B159" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>456</v>
+        <v>19</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>457</v>
@@ -4399,7 +4702,7 @@
         <v>458</v>
       </c>
       <c r="B160" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>459</v>
@@ -4409,12 +4712,12 @@
       </c>
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="1:5" ht="42">
+    <row r="161" spans="1:5" ht="28">
       <c r="A161" s="2" t="s">
         <v>461</v>
       </c>
       <c r="B161" s="3">
-        <v>42176</v>
+        <v>42203</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>462</v>
@@ -4424,12 +4727,12 @@
       </c>
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="1:5" ht="42">
+    <row r="162" spans="1:5" ht="28">
       <c r="A162" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B162" s="3">
-        <v>42171</v>
+        <v>42203</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>465</v>
@@ -4439,155 +4742,680 @@
       </c>
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="1:5" ht="42">
+    <row r="163" spans="1:5" ht="28">
       <c r="A163" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B163" s="3">
-        <v>42169</v>
+        <v>42203</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="1:5" ht="42">
+    <row r="164" spans="1:5" ht="28">
       <c r="A164" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B164" s="3">
-        <v>42169</v>
+        <v>42203</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E164" s="4"/>
     </row>
     <row r="165" spans="1:5" ht="28">
       <c r="A165" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B165" s="3">
-        <v>42169</v>
+        <v>42203</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="1:5" ht="42">
+    <row r="166" spans="1:5" ht="28">
       <c r="A166" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B166" s="3">
-        <v>42168</v>
+        <v>42203</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>31</v>
+        <v>477</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E166" s="4"/>
     </row>
     <row r="167" spans="1:5" ht="28">
       <c r="A167" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B167" s="3">
-        <v>42168</v>
+        <v>42203</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="1:5" ht="42">
+    <row r="168" spans="1:5" ht="28">
       <c r="A168" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B168" s="3">
-        <v>42168</v>
+        <v>42203</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>481</v>
+        <v>161</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5" ht="42">
       <c r="A169" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B169" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" ht="28">
+      <c r="A170" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B170" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" ht="42">
+      <c r="A171" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B171" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" ht="42">
+      <c r="A172" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B172" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" ht="28">
+      <c r="A173" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B173" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" ht="42">
+      <c r="A174" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B174" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" ht="28">
+      <c r="A175" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B175" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" ht="42">
+      <c r="A176" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B176" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" ht="42">
+      <c r="A177" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B177" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" ht="28">
+      <c r="A178" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B178" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" ht="42">
+      <c r="A179" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B179" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" ht="42">
+      <c r="A180" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B180" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" ht="42">
+      <c r="A181" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B181" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" ht="42">
+      <c r="A182" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B182" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" ht="42">
+      <c r="A183" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B183" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" ht="42">
+      <c r="A184" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B184" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" ht="42">
+      <c r="A185" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B185" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" ht="42">
+      <c r="A186" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B186" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" ht="42">
+      <c r="A187" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B187" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" ht="28">
+      <c r="A188" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B188" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" ht="28">
+      <c r="A189" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B189" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" ht="28">
+      <c r="A190" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B190" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" ht="42">
+      <c r="A191" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B191" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" ht="42">
+      <c r="A192" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B192" s="3">
+        <v>42203</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" ht="42">
+      <c r="A193" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B193" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" ht="42">
+      <c r="A194" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B194" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" ht="42">
+      <c r="A195" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B195" s="3">
+        <v>42195</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" ht="28">
+      <c r="A196" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B196" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" ht="28">
+      <c r="A197" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B197" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="1:5" ht="42">
+      <c r="A198" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B198" s="3">
+        <v>42176</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" ht="42">
+      <c r="A199" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B199" s="3">
+        <v>42171</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" ht="42">
+      <c r="A200" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B200" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" ht="28">
+      <c r="A201" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B201" s="3">
+        <v>42169</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="1:5" ht="42">
+      <c r="A202" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B202" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="1:5" ht="28">
+      <c r="A203" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B203" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" ht="42">
+      <c r="A204" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B204" s="3">
+        <v>42168</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="1:5" ht="42">
+      <c r="A205" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B205" s="3">
         <v>42047</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="1:5" ht="42">
-      <c r="A170" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B170" s="3">
+      <c r="C205" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" spans="1:5" ht="42">
+      <c r="A206" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B206" s="3">
         <v>42037</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="E170" s="4"/>
-    </row>
-    <row r="171" spans="1:5" ht="28">
-      <c r="A171" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B171" s="3">
-        <v>42026</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E171" s="4"/>
-    </row>
-    <row r="172" spans="1:5" ht="28">
-      <c r="A172" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B172" s="3">
+      <c r="C206" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="1:5" ht="28">
+      <c r="A207" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B207" s="3">
         <v>41938</v>
       </c>
-      <c r="C172" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E172" s="4"/>
+      <c r="C207" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E207" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4763,6 +5591,41 @@
     <hyperlink ref="A170" r:id="rId167"/>
     <hyperlink ref="A171" r:id="rId168"/>
     <hyperlink ref="A172" r:id="rId169"/>
+    <hyperlink ref="A173" r:id="rId170"/>
+    <hyperlink ref="A174" r:id="rId171"/>
+    <hyperlink ref="A175" r:id="rId172"/>
+    <hyperlink ref="A176" r:id="rId173"/>
+    <hyperlink ref="A177" r:id="rId174"/>
+    <hyperlink ref="A178" r:id="rId175"/>
+    <hyperlink ref="A179" r:id="rId176"/>
+    <hyperlink ref="A180" r:id="rId177"/>
+    <hyperlink ref="A181" r:id="rId178"/>
+    <hyperlink ref="A182" r:id="rId179"/>
+    <hyperlink ref="A183" r:id="rId180"/>
+    <hyperlink ref="A184" r:id="rId181"/>
+    <hyperlink ref="A185" r:id="rId182"/>
+    <hyperlink ref="A186" r:id="rId183"/>
+    <hyperlink ref="A187" r:id="rId184"/>
+    <hyperlink ref="A188" r:id="rId185"/>
+    <hyperlink ref="A189" r:id="rId186"/>
+    <hyperlink ref="A190" r:id="rId187"/>
+    <hyperlink ref="A191" r:id="rId188"/>
+    <hyperlink ref="A192" r:id="rId189"/>
+    <hyperlink ref="A193" r:id="rId190"/>
+    <hyperlink ref="A194" r:id="rId191"/>
+    <hyperlink ref="A195" r:id="rId192"/>
+    <hyperlink ref="A196" r:id="rId193"/>
+    <hyperlink ref="A197" r:id="rId194"/>
+    <hyperlink ref="A198" r:id="rId195"/>
+    <hyperlink ref="A199" r:id="rId196"/>
+    <hyperlink ref="A200" r:id="rId197"/>
+    <hyperlink ref="A201" r:id="rId198"/>
+    <hyperlink ref="A202" r:id="rId199"/>
+    <hyperlink ref="A203" r:id="rId200"/>
+    <hyperlink ref="A204" r:id="rId201"/>
+    <hyperlink ref="A205" r:id="rId202"/>
+    <hyperlink ref="A206" r:id="rId203"/>
+    <hyperlink ref="A207" r:id="rId204"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
